--- a/work/20190901.xlsx
+++ b/work/20190901.xlsx
@@ -417,34 +417,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>sherrycute</v>
+        <v>BryanXu.XDD</v>
       </c>
       <c r="B2" t="str">
-        <v>44283</v>
+        <v>20480</v>
       </c>
       <c r="C2" t="str">
-        <v>7860157</v>
+        <v>8456653</v>
       </c>
       <c r="D2" t="str">
-        <v>85465</v>
+        <v>94462</v>
       </c>
       <c r="E2" t="str">
-        <v>2974</v>
+        <v>873</v>
       </c>
       <c r="F2" t="str">
-        <v>1702659</v>
+        <v>1983722</v>
       </c>
       <c r="G2" t="str">
         <v>1840</v>
       </c>
       <c r="H2" t="str">
-        <v>A4TX4P55SZF3</v>
+        <v>9YAKKK481HEH</v>
       </c>
       <c r="I2" t="str">
-        <v>43890</v>
+        <v>45650</v>
       </c>
       <c r="J2" t="str">
-        <v>2195</v>
+        <v>2491</v>
       </c>
       <c r="K2" t="str">
         <v>2227996</v>
@@ -452,3047 +452,3047 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>༺纸࿈鸢༻</v>
+        <v>✨风骨✨</v>
       </c>
       <c r="B3" t="str">
-        <v>3691</v>
+        <v>19236</v>
       </c>
       <c r="C3" t="str">
-        <v>7832789</v>
+        <v>8271353</v>
       </c>
       <c r="D3" t="str">
-        <v>92436</v>
+        <v>119695</v>
       </c>
       <c r="E3" t="str">
-        <v>2368</v>
+        <v>1224</v>
       </c>
       <c r="F3" t="str">
-        <v>1820046</v>
+        <v>2425832</v>
       </c>
       <c r="G3" t="str">
         <v>1840</v>
       </c>
       <c r="H3" t="str">
-        <v>9DDEX35N9NZN</v>
+        <v>9UCWHR3JSFAC</v>
       </c>
       <c r="I3" t="str">
-        <v>44040</v>
+        <v>44460</v>
       </c>
       <c r="J3" t="str">
-        <v>2200</v>
+        <v>2266</v>
       </c>
       <c r="K3" t="str">
-        <v>2227996</v>
+        <v>2189116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Uncle.OldWang</v>
+        <v>H.晓旭</v>
       </c>
       <c r="B4" t="str">
-        <v>92</v>
+        <v>1176</v>
       </c>
       <c r="C4" t="str">
-        <v>7644813</v>
+        <v>7444972</v>
       </c>
       <c r="D4" t="str">
-        <v>77571</v>
+        <v>81743</v>
       </c>
       <c r="E4" t="str">
-        <v>2751</v>
+        <v>458</v>
       </c>
       <c r="F4" t="str">
-        <v>1431785</v>
+        <v>1635914</v>
       </c>
       <c r="G4" t="str">
         <v>1840</v>
       </c>
       <c r="H4" t="str">
-        <v>9F52K46320G5</v>
+        <v>9L2XQF2KN24F</v>
       </c>
       <c r="I4" t="str">
-        <v>43820</v>
+        <v>43720</v>
       </c>
       <c r="J4" t="str">
-        <v>2308</v>
+        <v>2325</v>
       </c>
       <c r="K4" t="str">
-        <v>2227996</v>
+        <v>1957656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>木可可</v>
+        <v>战神索尔</v>
       </c>
       <c r="B5" t="str">
-        <v>13313</v>
+        <v>19217</v>
       </c>
       <c r="C5" t="str">
-        <v>7614845</v>
+        <v>6826825</v>
       </c>
       <c r="D5" t="str">
-        <v>93071</v>
+        <v>56316</v>
       </c>
       <c r="E5" t="str">
-        <v>2574</v>
+        <v>689</v>
       </c>
       <c r="F5" t="str">
-        <v>1934906</v>
+        <v>1068490</v>
       </c>
       <c r="G5" t="str">
         <v>1840</v>
       </c>
       <c r="H5" t="str">
-        <v>95DUZS4PH3P2</v>
+        <v>95ESD54RH6FU</v>
       </c>
       <c r="I5" t="str">
-        <v>43210</v>
+        <v>43940</v>
       </c>
       <c r="J5" t="str">
-        <v>2276</v>
+        <v>2738</v>
       </c>
       <c r="K5" t="str">
-        <v>1955521</v>
+        <v>1616122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>王者归来♀</v>
+        <v>Sarah.Kerrigan</v>
       </c>
       <c r="B6" t="str">
-        <v>37507</v>
+        <v>49037</v>
       </c>
       <c r="C6" t="str">
-        <v>7143160</v>
+        <v>6344065</v>
       </c>
       <c r="D6" t="str">
-        <v>43550</v>
+        <v>44748</v>
       </c>
       <c r="E6" t="str">
-        <v>2030</v>
+        <v>1367</v>
       </c>
       <c r="F6" t="str">
-        <v>843463</v>
+        <v>928588</v>
       </c>
       <c r="G6" t="str">
         <v>1840</v>
       </c>
       <c r="H6" t="str">
-        <v>9E9QC74Q0PSZ</v>
+        <v>A5NNZ83AJ12Y</v>
       </c>
       <c r="I6" t="str">
-        <v>43510</v>
+        <v>44710</v>
       </c>
       <c r="J6" t="str">
-        <v>2607</v>
+        <v>2524</v>
       </c>
       <c r="K6" t="str">
-        <v>2072971</v>
+        <v>1536969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Rowi</v>
+        <v>叫吾老衲</v>
       </c>
       <c r="B7" t="str">
-        <v>11215</v>
+        <v>62383</v>
       </c>
       <c r="C7" t="str">
-        <v>7089709</v>
+        <v>5899426</v>
       </c>
       <c r="D7" t="str">
-        <v>89776</v>
+        <v>71533</v>
       </c>
       <c r="E7" t="str">
-        <v>924</v>
+        <v>484</v>
       </c>
       <c r="F7" t="str">
-        <v>1781315</v>
+        <v>1440224</v>
       </c>
       <c r="G7" t="str">
-        <v>1840</v>
+        <v>1748</v>
       </c>
       <c r="H7" t="str">
-        <v>9YTJMM5US9AQ</v>
+        <v>AJJEE15YH5KK</v>
       </c>
       <c r="I7" t="str">
-        <v>43200</v>
+        <v>42045</v>
       </c>
       <c r="J7" t="str">
-        <v>2375</v>
+        <v>1626</v>
       </c>
       <c r="K7" t="str">
-        <v>1465446</v>
+        <v>1420356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>萝卜小丝</v>
+        <v>✨星酱酱✨</v>
       </c>
       <c r="B8" t="str">
-        <v>49749</v>
+        <v>67709</v>
       </c>
       <c r="C8" t="str">
-        <v>6598537</v>
+        <v>5627416</v>
       </c>
       <c r="D8" t="str">
-        <v>37858</v>
+        <v>49423</v>
       </c>
       <c r="E8" t="str">
-        <v>1281</v>
+        <v>1115</v>
       </c>
       <c r="F8" t="str">
-        <v>752591</v>
+        <v>1013827</v>
       </c>
       <c r="G8" t="str">
         <v>1840</v>
       </c>
       <c r="H8" t="str">
-        <v>9QQGJC570PN4</v>
+        <v>9FS8EK429HR8</v>
       </c>
       <c r="I8" t="str">
-        <v>43830</v>
+        <v>44460</v>
       </c>
       <c r="J8" t="str">
-        <v>2451</v>
+        <v>2004</v>
       </c>
       <c r="K8" t="str">
-        <v>1727209</v>
+        <v>1461376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>我是达文西</v>
+        <v>欢弹</v>
       </c>
       <c r="B9" t="str">
-        <v>423</v>
+        <v>10012</v>
       </c>
       <c r="C9" t="str">
-        <v>6574579</v>
+        <v>5614637</v>
       </c>
       <c r="D9" t="str">
-        <v>40979</v>
+        <v>36511</v>
       </c>
       <c r="E9" t="str">
-        <v>1228</v>
+        <v>430</v>
       </c>
       <c r="F9" t="str">
-        <v>841886</v>
+        <v>703195</v>
       </c>
       <c r="G9" t="str">
         <v>1840</v>
       </c>
       <c r="H9" t="str">
-        <v>954D1R3QJWMR</v>
+        <v>9HT8YP428XQL</v>
       </c>
       <c r="I9" t="str">
-        <v>43730</v>
+        <v>43930</v>
       </c>
       <c r="J9" t="str">
-        <v>2550</v>
+        <v>1986</v>
       </c>
       <c r="K9" t="str">
-        <v>1709655</v>
+        <v>1427113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>夜❈曲</v>
+        <v>Gumballppt</v>
       </c>
       <c r="B10" t="str">
-        <v>2157</v>
+        <v>24285</v>
       </c>
       <c r="C10" t="str">
-        <v>6421852</v>
+        <v>5580181</v>
       </c>
       <c r="D10" t="str">
-        <v>68788</v>
+        <v>53658</v>
       </c>
       <c r="E10" t="str">
-        <v>1806</v>
+        <v>831</v>
       </c>
       <c r="F10" t="str">
-        <v>1363558</v>
+        <v>1017754</v>
       </c>
       <c r="G10" t="str">
-        <v>1840</v>
+        <v>1691</v>
       </c>
       <c r="H10" t="str">
-        <v>97WC6S3H8HEJ</v>
+        <v>9F7ZQD3T02SD</v>
       </c>
       <c r="I10" t="str">
-        <v>43860</v>
+        <v>41920</v>
       </c>
       <c r="J10" t="str">
-        <v>2276</v>
+        <v>2340</v>
       </c>
       <c r="K10" t="str">
-        <v>1403461</v>
+        <v>939604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>土大肥圆彪</v>
+        <v>大企鹅鹅鹅</v>
       </c>
       <c r="B11" t="str">
-        <v>26890</v>
+        <v>675</v>
       </c>
       <c r="C11" t="str">
-        <v>6407920</v>
+        <v>5570180</v>
       </c>
       <c r="D11" t="str">
-        <v>47845</v>
+        <v>52704</v>
       </c>
       <c r="E11" t="str">
-        <v>1431</v>
+        <v>548</v>
       </c>
       <c r="F11" t="str">
-        <v>836011</v>
+        <v>1027682</v>
       </c>
       <c r="G11" t="str">
         <v>1840</v>
       </c>
       <c r="H11" t="str">
-        <v>9KQ4L551LHA6</v>
+        <v>94ES8T2P00F6</v>
       </c>
       <c r="I11" t="str">
-        <v>43660</v>
+        <v>42300</v>
       </c>
       <c r="J11" t="str">
-        <v>2130</v>
+        <v>1742</v>
       </c>
       <c r="K11" t="str">
-        <v>1827379</v>
+        <v>1244391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>改名转欧皇</v>
+        <v>三文鱼shim</v>
       </c>
       <c r="B12" t="str">
-        <v>21250</v>
+        <v>36059</v>
       </c>
       <c r="C12" t="str">
-        <v>6401097</v>
+        <v>5420354</v>
       </c>
       <c r="D12" t="str">
-        <v>54503</v>
+        <v>47217</v>
       </c>
       <c r="E12" t="str">
-        <v>1568</v>
+        <v>1350</v>
       </c>
       <c r="F12" t="str">
-        <v>1071164</v>
+        <v>912372</v>
       </c>
       <c r="G12" t="str">
         <v>1840</v>
       </c>
       <c r="H12" t="str">
-        <v>95P2DQ4R0DN9</v>
+        <v>A0UJA9670FSF</v>
       </c>
       <c r="I12" t="str">
-        <v>43990</v>
+        <v>43890</v>
       </c>
       <c r="J12" t="str">
-        <v>2369</v>
+        <v>2009</v>
       </c>
       <c r="K12" t="str">
-        <v>1382469</v>
+        <v>1307215</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>溪流探险家</v>
+        <v>zzz~</v>
       </c>
       <c r="B13" t="str">
-        <v>9295</v>
+        <v>233</v>
       </c>
       <c r="C13" t="str">
-        <v>6313163</v>
+        <v>5373878</v>
       </c>
       <c r="D13" t="str">
-        <v>60477</v>
+        <v>53738</v>
       </c>
       <c r="E13" t="str">
-        <v>1434</v>
+        <v>673</v>
       </c>
       <c r="F13" t="str">
-        <v>1157601</v>
+        <v>1006155</v>
       </c>
       <c r="G13" t="str">
-        <v>1775</v>
+        <v>1840</v>
       </c>
       <c r="H13" t="str">
-        <v>99ZNQM4GR5TQ</v>
+        <v>94FEDD2P0350</v>
       </c>
       <c r="I13" t="str">
-        <v>43780</v>
+        <v>44380</v>
       </c>
       <c r="J13" t="str">
-        <v>2385</v>
+        <v>1617</v>
       </c>
       <c r="K13" t="str">
-        <v>1317075</v>
+        <v>1113864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>熊孩子ta爹</v>
+        <v>基丨拉</v>
       </c>
       <c r="B14" t="str">
-        <v>20756</v>
+        <v>4885</v>
       </c>
       <c r="C14" t="str">
-        <v>6260965</v>
+        <v>5331318</v>
       </c>
       <c r="D14" t="str">
-        <v>51614</v>
+        <v>45334</v>
       </c>
       <c r="E14" t="str">
-        <v>1909</v>
+        <v>588</v>
       </c>
       <c r="F14" t="str">
-        <v>1011098</v>
+        <v>849296</v>
       </c>
       <c r="G14" t="str">
         <v>1840</v>
       </c>
       <c r="H14" t="str">
-        <v>9NP3GG4K9L6L</v>
+        <v>9SCL0E4R8HHE</v>
       </c>
       <c r="I14" t="str">
-        <v>43590</v>
+        <v>43600</v>
       </c>
       <c r="J14" t="str">
-        <v>2250</v>
+        <v>1703</v>
       </c>
       <c r="K14" t="str">
-        <v>1500742</v>
+        <v>1075409</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Fkworld</v>
+        <v>哥布鲁托</v>
       </c>
       <c r="B15" t="str">
-        <v>627</v>
+        <v>8347</v>
       </c>
       <c r="C15" t="str">
-        <v>6246720</v>
+        <v>5285733</v>
       </c>
       <c r="D15" t="str">
-        <v>56868</v>
+        <v>38030</v>
       </c>
       <c r="E15" t="str">
-        <v>1397</v>
+        <v>475</v>
       </c>
       <c r="F15" t="str">
-        <v>1208058</v>
+        <v>703639</v>
       </c>
       <c r="G15" t="str">
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="H15" t="str">
-        <v>992HK64HUXGA</v>
+        <v>96XGF85Q07YG</v>
       </c>
       <c r="I15" t="str">
-        <v>43840</v>
+        <v>43860</v>
       </c>
       <c r="J15" t="str">
-        <v>2170</v>
+        <v>1872</v>
       </c>
       <c r="K15" t="str">
-        <v>1385290</v>
+        <v>1072271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>③重刘德华</v>
+        <v>独家记忆1003</v>
       </c>
       <c r="B16" t="str">
-        <v>2478</v>
+        <v>3804</v>
       </c>
       <c r="C16" t="str">
-        <v>6194157</v>
+        <v>5138577</v>
       </c>
       <c r="D16" t="str">
-        <v>49387</v>
+        <v>31083</v>
       </c>
       <c r="E16" t="str">
-        <v>2842</v>
+        <v>443</v>
       </c>
       <c r="F16" t="str">
-        <v>994790</v>
+        <v>448015</v>
       </c>
       <c r="G16" t="str">
         <v>1840</v>
       </c>
       <c r="H16" t="str">
-        <v>9S6KUK3AH2JR</v>
+        <v>9KNH253TC06Q</v>
       </c>
       <c r="I16" t="str">
-        <v>43800</v>
+        <v>44740</v>
       </c>
       <c r="J16" t="str">
-        <v>2112</v>
+        <v>2065</v>
       </c>
       <c r="K16" t="str">
-        <v>1667316</v>
+        <v>964602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>鬼魅夕</v>
+        <v>爱兮自己啊</v>
       </c>
       <c r="B17" t="str">
-        <v>62970</v>
+        <v>4449</v>
       </c>
       <c r="C17" t="str">
-        <v>6188486</v>
+        <v>5129422</v>
       </c>
       <c r="D17" t="str">
-        <v>52645</v>
+        <v>29315</v>
       </c>
       <c r="E17" t="str">
-        <v>2579</v>
+        <v>441</v>
       </c>
       <c r="F17" t="str">
-        <v>1043355</v>
+        <v>552532</v>
       </c>
       <c r="G17" t="str">
         <v>1840</v>
       </c>
       <c r="H17" t="str">
-        <v>AJC0Z53TSFGN</v>
+        <v>94SDAN3QRP1M</v>
       </c>
       <c r="I17" t="str">
-        <v>43790</v>
+        <v>43630</v>
       </c>
       <c r="J17" t="str">
-        <v>2036</v>
+        <v>1904</v>
       </c>
       <c r="K17" t="str">
-        <v>1647478</v>
+        <v>1134543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>韩家公子🍷</v>
+        <v>曾多多</v>
       </c>
       <c r="B18" t="str">
-        <v>5319</v>
+        <v>3956</v>
       </c>
       <c r="C18" t="str">
-        <v>6137939</v>
+        <v>5118225</v>
       </c>
       <c r="D18" t="str">
-        <v>54584</v>
+        <v>17285</v>
       </c>
       <c r="E18" t="str">
-        <v>674</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="str">
-        <v>1031605</v>
+        <v>343839</v>
       </c>
       <c r="G18" t="str">
         <v>1840</v>
       </c>
       <c r="H18" t="str">
-        <v>9FJ3NQ3KRX7X</v>
+        <v>9SUUYU2KR5J5</v>
       </c>
       <c r="I18" t="str">
-        <v>43720</v>
+        <v>45120</v>
       </c>
       <c r="J18" t="str">
-        <v>2266</v>
+        <v>1994</v>
       </c>
       <c r="K18" t="str">
-        <v>1438041</v>
+        <v>1115859</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>✨小小酥✨</v>
+        <v>吴家小爷</v>
       </c>
       <c r="B19" t="str">
-        <v>9861</v>
+        <v>6079</v>
       </c>
       <c r="C19" t="str">
-        <v>6083463</v>
+        <v>5100373</v>
       </c>
       <c r="D19" t="str">
-        <v>59455</v>
+        <v>39120</v>
       </c>
       <c r="E19" t="str">
-        <v>1229</v>
+        <v>445</v>
       </c>
       <c r="F19" t="str">
-        <v>1096722</v>
+        <v>703166</v>
       </c>
       <c r="G19" t="str">
         <v>1840</v>
       </c>
       <c r="H19" t="str">
-        <v>94PYQ42W0XL4</v>
+        <v>96H4EJ2WCUF2</v>
       </c>
       <c r="I19" t="str">
-        <v>43710</v>
+        <v>43460</v>
       </c>
       <c r="J19" t="str">
-        <v>2293</v>
+        <v>1838</v>
       </c>
       <c r="K19" t="str">
-        <v>1180425</v>
+        <v>909508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>萌蠢肛爆</v>
+        <v>蜗牛大大大</v>
       </c>
       <c r="B20" t="str">
-        <v>7011</v>
+        <v>19996</v>
       </c>
       <c r="C20" t="str">
-        <v>6040862</v>
+        <v>5088841</v>
       </c>
       <c r="D20" t="str">
-        <v>41520</v>
+        <v>33861</v>
       </c>
       <c r="E20" t="str">
-        <v>1131</v>
+        <v>499</v>
       </c>
       <c r="F20" t="str">
-        <v>826551</v>
+        <v>642835</v>
       </c>
       <c r="G20" t="str">
-        <v>1840</v>
+        <v>1768</v>
       </c>
       <c r="H20" t="str">
-        <v>A18QU73AH1S4</v>
+        <v>9WEEN42WS235</v>
       </c>
       <c r="I20" t="str">
-        <v>42780</v>
+        <v>40000</v>
       </c>
       <c r="J20" t="str">
-        <v>2230</v>
+        <v>1768</v>
       </c>
       <c r="K20" t="str">
-        <v>1510462</v>
+        <v>1177946</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>咖啡雪碧</v>
+        <v>一剑闯江湖</v>
       </c>
       <c r="B21" t="str">
-        <v>12021</v>
+        <v>11198</v>
       </c>
       <c r="C21" t="str">
-        <v>6033510</v>
+        <v>5061992</v>
       </c>
       <c r="D21" t="str">
-        <v>59119</v>
+        <v>44526</v>
       </c>
       <c r="E21" t="str">
-        <v>1776</v>
+        <v>525</v>
       </c>
       <c r="F21" t="str">
-        <v>1120877</v>
+        <v>859804</v>
       </c>
       <c r="G21" t="str">
-        <v>1840</v>
+        <v>1719</v>
       </c>
       <c r="H21" t="str">
-        <v>99DQEW3D50J4</v>
+        <v>977QXF5F22XG</v>
       </c>
       <c r="I21" t="str">
-        <v>43960</v>
+        <v>44450</v>
       </c>
       <c r="J21" t="str">
-        <v>2113</v>
+        <v>1609</v>
       </c>
       <c r="K21" t="str">
-        <v>1264845</v>
+        <v>1053944</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>nida</v>
+        <v>混啊混</v>
       </c>
       <c r="B22" t="str">
-        <v>5403</v>
+        <v>1542</v>
       </c>
       <c r="C22" t="str">
-        <v>5970963</v>
+        <v>5052455</v>
       </c>
       <c r="D22" t="str">
-        <v>41609</v>
+        <v>23745</v>
       </c>
       <c r="E22" t="str">
-        <v>1526</v>
+        <v>496</v>
       </c>
       <c r="F22" t="str">
-        <v>825994</v>
+        <v>494433</v>
       </c>
       <c r="G22" t="str">
         <v>1840</v>
       </c>
       <c r="H22" t="str">
-        <v>9UR2J22XHUEW</v>
+        <v>955SML4K02R9</v>
       </c>
       <c r="I22" t="str">
-        <v>43520</v>
+        <v>44510</v>
       </c>
       <c r="J22" t="str">
-        <v>2043</v>
+        <v>2004</v>
       </c>
       <c r="K22" t="str">
-        <v>1602766</v>
+        <v>1062163</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>胖虎໑͜✿</v>
+        <v>爱新觉罗DJQ</v>
       </c>
       <c r="B23" t="str">
-        <v>6881</v>
+        <v>39619</v>
       </c>
       <c r="C23" t="str">
-        <v>5950793</v>
+        <v>5031705</v>
       </c>
       <c r="D23" t="str">
-        <v>42074</v>
+        <v>47374</v>
       </c>
       <c r="E23" t="str">
         <v>-1</v>
       </c>
       <c r="F23" t="str">
-        <v>799288</v>
+        <v>931967</v>
       </c>
       <c r="G23" t="str">
         <v>1840</v>
       </c>
       <c r="H23" t="str">
-        <v>9GECHE64AQXZ</v>
+        <v>9SDRNT4RRMTJ</v>
       </c>
       <c r="I23" t="str">
-        <v>44000</v>
+        <v>34515</v>
       </c>
       <c r="J23" t="str">
-        <v>2107</v>
+        <v>1733</v>
       </c>
       <c r="K23" t="str">
-        <v>1462942</v>
+        <v>832380</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>有趣的卡卡</v>
+        <v>&gt;孤单的灵魂</v>
       </c>
       <c r="B24" t="str">
-        <v>22081</v>
+        <v>14650</v>
       </c>
       <c r="C24" t="str">
-        <v>5905014</v>
+        <v>5003358</v>
       </c>
       <c r="D24" t="str">
-        <v>42307</v>
+        <v>43138</v>
       </c>
       <c r="E24" t="str">
-        <v>1283</v>
+        <v>566</v>
       </c>
       <c r="F24" t="str">
-        <v>815503</v>
+        <v>754927</v>
       </c>
       <c r="G24" t="str">
         <v>1840</v>
       </c>
       <c r="H24" t="str">
-        <v>99ALZZ66RSEY</v>
+        <v>94ERHX2U808Q</v>
       </c>
       <c r="I24" t="str">
-        <v>44010</v>
+        <v>43760</v>
       </c>
       <c r="J24" t="str">
-        <v>2100</v>
+        <v>1725</v>
       </c>
       <c r="K24" t="str">
-        <v>1341523</v>
+        <v>1053213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>小小琦</v>
+        <v>叶子猪</v>
       </c>
       <c r="B25" t="str">
-        <v>19129</v>
+        <v>1347</v>
       </c>
       <c r="C25" t="str">
-        <v>5895792</v>
+        <v>5000202</v>
       </c>
       <c r="D25" t="str">
-        <v>43805</v>
+        <v>39988</v>
       </c>
       <c r="E25" t="str">
-        <v>855</v>
+        <v>429</v>
       </c>
       <c r="F25" t="str">
-        <v>851335</v>
+        <v>836257</v>
       </c>
       <c r="G25" t="str">
         <v>1840</v>
       </c>
       <c r="H25" t="str">
-        <v>9DJCNY2P84YS</v>
+        <v>95EF8W2LCPL0</v>
       </c>
       <c r="I25" t="str">
-        <v>43700</v>
+        <v>43200</v>
       </c>
       <c r="J25" t="str">
-        <v>1897</v>
+        <v>1620</v>
       </c>
       <c r="K25" t="str">
-        <v>1478494</v>
+        <v>1039618</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>金木研菌</v>
+        <v>静静De一个</v>
       </c>
       <c r="B26" t="str">
-        <v>18342</v>
+        <v>10919</v>
       </c>
       <c r="C26" t="str">
-        <v>5886252</v>
+        <v>4993178</v>
       </c>
       <c r="D26" t="str">
-        <v>40804</v>
+        <v>24130</v>
       </c>
       <c r="E26" t="str">
-        <v>933</v>
+        <v>537</v>
       </c>
       <c r="F26" t="str">
-        <v>783893</v>
+        <v>354223</v>
       </c>
       <c r="G26" t="str">
         <v>1840</v>
       </c>
       <c r="H26" t="str">
-        <v>9NZSNS408RW3</v>
+        <v>9KNTMQ5G2TXR</v>
       </c>
       <c r="I26" t="str">
-        <v>44090</v>
+        <v>44080</v>
       </c>
       <c r="J26" t="str">
-        <v>2209</v>
+        <v>2104</v>
       </c>
       <c r="K26" t="str">
-        <v>1437771</v>
+        <v>979013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>晚安丶早安</v>
+        <v>卫国公</v>
       </c>
       <c r="B27" t="str">
-        <v>2804</v>
+        <v>4898</v>
       </c>
       <c r="C27" t="str">
-        <v>5846803</v>
+        <v>4986156</v>
       </c>
       <c r="D27" t="str">
-        <v>47475</v>
+        <v>22651</v>
       </c>
       <c r="E27" t="str">
-        <v>1081</v>
+        <v>491</v>
       </c>
       <c r="F27" t="str">
-        <v>901354</v>
+        <v>448094</v>
       </c>
       <c r="G27" t="str">
         <v>1840</v>
       </c>
       <c r="H27" t="str">
-        <v>955AA34H01YE</v>
+        <v>A548S74SAQK5</v>
       </c>
       <c r="I27" t="str">
-        <v>44080</v>
+        <v>44650</v>
       </c>
       <c r="J27" t="str">
-        <v>2021</v>
+        <v>1511</v>
       </c>
       <c r="K27" t="str">
-        <v>1406890</v>
+        <v>1306785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>晚安丶早安</v>
+        <v>石头爸爸</v>
       </c>
       <c r="B28" t="str">
-        <v>26527</v>
+        <v>13446</v>
       </c>
       <c r="C28" t="str">
-        <v>5843348</v>
+        <v>4965071</v>
       </c>
       <c r="D28" t="str">
-        <v>37790</v>
+        <v>29386</v>
       </c>
       <c r="E28" t="str">
-        <v>1102</v>
+        <v>447</v>
       </c>
       <c r="F28" t="str">
-        <v>725550</v>
+        <v>510311</v>
       </c>
       <c r="G28" t="str">
         <v>1840</v>
       </c>
       <c r="H28" t="str">
-        <v>99GDWQ66J021</v>
+        <v>94LZWQ3SH4R4</v>
       </c>
       <c r="I28" t="str">
-        <v>43960</v>
+        <v>43140</v>
       </c>
       <c r="J28" t="str">
-        <v>2196</v>
+        <v>1878</v>
       </c>
       <c r="K28" t="str">
-        <v>1462114</v>
+        <v>1104897</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>@���</v>
+        <v>汏鲸鱼</v>
       </c>
       <c r="B29" t="str">
-        <v>21226</v>
+        <v>4508</v>
       </c>
       <c r="C29" t="str">
-        <v>5787907</v>
+        <v>4952503</v>
       </c>
       <c r="D29" t="str">
-        <v>42782</v>
+        <v>25126</v>
       </c>
       <c r="E29" t="str">
-        <v>1150</v>
+        <v>580</v>
       </c>
       <c r="F29" t="str">
-        <v>800394</v>
+        <v>457864</v>
       </c>
       <c r="G29" t="str">
         <v>1840</v>
       </c>
       <c r="H29" t="str">
-        <v>9NC0H62X0M0E</v>
+        <v>9609F44H1H9P</v>
       </c>
       <c r="I29" t="str">
-        <v>43930</v>
+        <v>44870</v>
       </c>
       <c r="J29" t="str">
-        <v>2149</v>
+        <v>2045</v>
       </c>
       <c r="K29" t="str">
-        <v>1318947</v>
+        <v>1118852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>等天黒</v>
+        <v>大大说帅</v>
       </c>
       <c r="B30" t="str">
-        <v>1090</v>
+        <v>20650</v>
       </c>
       <c r="C30" t="str">
-        <v>5744836</v>
+        <v>4930810</v>
       </c>
       <c r="D30" t="str">
-        <v>51595</v>
+        <v>30345</v>
       </c>
       <c r="E30" t="str">
-        <v>1067</v>
+        <v>-1</v>
       </c>
       <c r="F30" t="str">
-        <v>1040688</v>
+        <v>592401</v>
       </c>
       <c r="G30" t="str">
         <v>1840</v>
       </c>
       <c r="H30" t="str">
-        <v>958P8A3LKNKP</v>
+        <v>9S0XQM3KJ8YZ</v>
       </c>
       <c r="I30" t="str">
-        <v>43660</v>
+        <v>43720</v>
       </c>
       <c r="J30" t="str">
-        <v>1818</v>
+        <v>1748</v>
       </c>
       <c r="K30" t="str">
-        <v>1361415</v>
+        <v>1041479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>琴酒伏特加</v>
+        <v>青青小短腿</v>
       </c>
       <c r="B31" t="str">
-        <v>16118</v>
+        <v>37686</v>
       </c>
       <c r="C31" t="str">
-        <v>5734222</v>
+        <v>4923346</v>
       </c>
       <c r="D31" t="str">
-        <v>39596</v>
+        <v>24871</v>
       </c>
       <c r="E31" t="str">
-        <v>1039</v>
+        <v>393</v>
       </c>
       <c r="F31" t="str">
-        <v>785375</v>
+        <v>497047</v>
       </c>
       <c r="G31" t="str">
         <v>1840</v>
       </c>
       <c r="H31" t="str">
-        <v>982URC4C0672</v>
+        <v>A3APUR30RZX4</v>
       </c>
       <c r="I31" t="str">
-        <v>43660</v>
+        <v>40000</v>
       </c>
       <c r="J31" t="str">
-        <v>2165</v>
+        <v>1943</v>
       </c>
       <c r="K31" t="str">
-        <v>1133247</v>
+        <v>1150478</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>蓝色车路士</v>
+        <v>灵均嘻嘻</v>
       </c>
       <c r="B32" t="str">
-        <v>5142</v>
+        <v>10713</v>
       </c>
       <c r="C32" t="str">
-        <v>5718686</v>
+        <v>4921574</v>
       </c>
       <c r="D32" t="str">
-        <v>40913</v>
+        <v>30364</v>
       </c>
       <c r="E32" t="str">
-        <v>1308</v>
+        <v>494</v>
       </c>
       <c r="F32" t="str">
-        <v>800440</v>
+        <v>558266</v>
       </c>
       <c r="G32" t="str">
         <v>1840</v>
       </c>
       <c r="H32" t="str">
-        <v>9J7WHH51HP61</v>
+        <v>9SDDXP5N0K6D</v>
       </c>
       <c r="I32" t="str">
-        <v>44130</v>
+        <v>44550</v>
       </c>
       <c r="J32" t="str">
-        <v>2234</v>
+        <v>1761</v>
       </c>
       <c r="K32" t="str">
-        <v>1145073</v>
+        <v>1055179</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>dionlei</v>
+        <v>Sloth911</v>
       </c>
       <c r="B33" t="str">
-        <v>63628</v>
+        <v>3325</v>
       </c>
       <c r="C33" t="str">
-        <v>5695241</v>
+        <v>4915514</v>
       </c>
       <c r="D33" t="str">
-        <v>38530</v>
+        <v>34664</v>
       </c>
       <c r="E33" t="str">
-        <v>-1</v>
+        <v>524</v>
       </c>
       <c r="F33" t="str">
-        <v>778000</v>
+        <v>688450</v>
       </c>
       <c r="G33" t="str">
         <v>1840</v>
       </c>
       <c r="H33" t="str">
-        <v>AFY8RS42RX4K</v>
+        <v>9SWQ6N4ER9RF</v>
       </c>
       <c r="I33" t="str">
-        <v>43790</v>
+        <v>44270</v>
       </c>
       <c r="J33" t="str">
-        <v>1794</v>
+        <v>1623</v>
       </c>
       <c r="K33" t="str">
-        <v>1650090</v>
+        <v>1133952</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>萌小Suika</v>
+        <v>琴棋书画</v>
       </c>
       <c r="B34" t="str">
-        <v>12906</v>
+        <v>4191</v>
       </c>
       <c r="C34" t="str">
-        <v>5693353</v>
+        <v>4914997</v>
       </c>
       <c r="D34" t="str">
-        <v>50645</v>
+        <v>26690</v>
       </c>
       <c r="E34" t="str">
-        <v>1041</v>
+        <v>473</v>
       </c>
       <c r="F34" t="str">
-        <v>1004372</v>
+        <v>513223</v>
       </c>
       <c r="G34" t="str">
         <v>1840</v>
       </c>
       <c r="H34" t="str">
-        <v>9SJ13H4P1091</v>
+        <v>967S8F4XK4GR</v>
       </c>
       <c r="I34" t="str">
-        <v>43250</v>
+        <v>43220</v>
       </c>
       <c r="J34" t="str">
-        <v>1803</v>
+        <v>1934</v>
       </c>
       <c r="K34" t="str">
-        <v>1264845</v>
+        <v>1035436</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>xnmzj</v>
+        <v>王子欧巴</v>
       </c>
       <c r="B35" t="str">
-        <v>8391</v>
+        <v>29445</v>
       </c>
       <c r="C35" t="str">
-        <v>5674042</v>
+        <v>4895176</v>
       </c>
       <c r="D35" t="str">
-        <v>53781</v>
+        <v>16407</v>
       </c>
       <c r="E35" t="str">
-        <v>1271</v>
+        <v>488</v>
       </c>
       <c r="F35" t="str">
-        <v>1010283</v>
+        <v>334806</v>
       </c>
       <c r="G35" t="str">
         <v>1840</v>
       </c>
       <c r="H35" t="str">
-        <v>9L8LAM3CXAKW</v>
+        <v>95P69J4Z87KN</v>
       </c>
       <c r="I35" t="str">
-        <v>43370</v>
+        <v>43890</v>
       </c>
       <c r="J35" t="str">
-        <v>1712</v>
+        <v>1852</v>
       </c>
       <c r="K35" t="str">
-        <v>1249431</v>
+        <v>1023347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>大塘夜猫</v>
+        <v>木一就�</v>
       </c>
       <c r="B36" t="str">
-        <v>22821</v>
+        <v>20007</v>
       </c>
       <c r="C36" t="str">
-        <v>5673744</v>
+        <v>4888768</v>
       </c>
       <c r="D36" t="str">
-        <v>38489</v>
+        <v>26865</v>
       </c>
       <c r="E36" t="str">
-        <v>924</v>
+        <v>452</v>
       </c>
       <c r="F36" t="str">
-        <v>741646</v>
+        <v>493066</v>
       </c>
       <c r="G36" t="str">
         <v>1840</v>
       </c>
       <c r="H36" t="str">
-        <v>9A6U2S5XHH5R</v>
+        <v>99AM4D65HSW4</v>
       </c>
       <c r="I36" t="str">
-        <v>44000</v>
+        <v>44170</v>
       </c>
       <c r="J36" t="str">
-        <v>2184</v>
+        <v>1836</v>
       </c>
       <c r="K36" t="str">
-        <v>1208379</v>
+        <v>1130591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>鬼魅夕</v>
+        <v>323丶轻风</v>
       </c>
       <c r="B37" t="str">
-        <v>6762</v>
+        <v>3537</v>
       </c>
       <c r="C37" t="str">
-        <v>5655185</v>
+        <v>4876055</v>
       </c>
       <c r="D37" t="str">
-        <v>43800</v>
+        <v>25292</v>
       </c>
       <c r="E37" t="str">
-        <v>1260</v>
+        <v>-1</v>
       </c>
       <c r="F37" t="str">
-        <v>862047</v>
+        <v>390188</v>
       </c>
       <c r="G37" t="str">
         <v>1840</v>
       </c>
       <c r="H37" t="str">
-        <v>9KP7LW50L01F</v>
+        <v>98JWAH50JYRY</v>
       </c>
       <c r="I37" t="str">
-        <v>43750</v>
+        <v>44560</v>
       </c>
       <c r="J37" t="str">
-        <v>2019</v>
+        <v>1694</v>
       </c>
       <c r="K37" t="str">
-        <v>1244478</v>
+        <v>1008296</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>斑马蹄子ze</v>
+        <v>阿風</v>
       </c>
       <c r="B38" t="str">
-        <v>27438</v>
+        <v>11042</v>
       </c>
       <c r="C38" t="str">
-        <v>5650246</v>
+        <v>4801058</v>
       </c>
       <c r="D38" t="str">
-        <v>61079</v>
+        <v>19602</v>
       </c>
       <c r="E38" t="str">
-        <v>-1</v>
+        <v>367</v>
       </c>
       <c r="F38" t="str">
-        <v>1137312</v>
+        <v>351848</v>
       </c>
       <c r="G38" t="str">
         <v>1840</v>
       </c>
       <c r="H38" t="str">
-        <v>97T6412SSFP1</v>
+        <v>96T3KP4H480E</v>
       </c>
       <c r="I38" t="str">
-        <v>43240</v>
+        <v>45130</v>
       </c>
       <c r="J38" t="str">
-        <v>2003</v>
+        <v>1641</v>
       </c>
       <c r="K38" t="str">
-        <v>1111749</v>
+        <v>1058871</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v/>
+        <v>肥皂掉地上</v>
       </c>
       <c r="B39" t="str">
-        <v>26346</v>
+        <v>7594</v>
       </c>
       <c r="C39" t="str">
-        <v>5639876</v>
+        <v>4737283</v>
       </c>
       <c r="D39" t="str">
-        <v>44018</v>
+        <v>20752</v>
       </c>
       <c r="E39" t="str">
-        <v>1142</v>
+        <v>463</v>
       </c>
       <c r="F39" t="str">
-        <v>813042</v>
+        <v>381909</v>
       </c>
       <c r="G39" t="str">
-        <v>1840</v>
+        <v>1680</v>
       </c>
       <c r="H39" t="str">
-        <v>94RQ403S8KTK</v>
+        <v>9TCPU35P83E8</v>
       </c>
       <c r="I39" t="str">
-        <v>43470</v>
+        <v>44450</v>
       </c>
       <c r="J39" t="str">
-        <v>1747</v>
+        <v>1879</v>
       </c>
       <c r="K39" t="str">
-        <v>1646099</v>
+        <v>1109204</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>萌蠢肛爆</v>
+        <v>Mr•皓玥</v>
       </c>
       <c r="B40" t="str">
-        <v>6837</v>
+        <v>33699</v>
       </c>
       <c r="C40" t="str">
-        <v>5628504</v>
+        <v>4730408</v>
       </c>
       <c r="D40" t="str">
-        <v>46784</v>
+        <v>21566</v>
       </c>
       <c r="E40" t="str">
-        <v>1269</v>
+        <v>484</v>
       </c>
       <c r="F40" t="str">
-        <v>929076</v>
+        <v>412291</v>
       </c>
       <c r="G40" t="str">
         <v>1840</v>
       </c>
       <c r="H40" t="str">
-        <v>9D0KKU3S8R3Y</v>
+        <v>A3TGRK5N0XGK</v>
       </c>
       <c r="I40" t="str">
-        <v>43800</v>
+        <v>43880</v>
       </c>
       <c r="J40" t="str">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="K40" t="str">
-        <v>1144653</v>
+        <v>1079949</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>此人瓦尔德</v>
+        <v>冷寂尘</v>
       </c>
       <c r="B41" t="str">
-        <v>11582</v>
+        <v>10081</v>
       </c>
       <c r="C41" t="str">
-        <v>5605281</v>
+        <v>4717820</v>
       </c>
       <c r="D41" t="str">
-        <v>48248</v>
+        <v>22880</v>
       </c>
       <c r="E41" t="str">
-        <v>932</v>
+        <v>418</v>
       </c>
       <c r="F41" t="str">
-        <v>912550</v>
+        <v>430986</v>
       </c>
       <c r="G41" t="str">
-        <v>1760</v>
+        <v>1840</v>
       </c>
       <c r="H41" t="str">
-        <v>9KLYQ83KKMSU</v>
+        <v>9RP0K15NH6WR</v>
       </c>
       <c r="I41" t="str">
-        <v>43450</v>
+        <v>43710</v>
       </c>
       <c r="J41" t="str">
-        <v>1600</v>
+        <v>1925</v>
       </c>
       <c r="K41" t="str">
-        <v>1461052</v>
+        <v>1026276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>腹黑貓</v>
+        <v>清丫清补凉</v>
       </c>
       <c r="B42" t="str">
-        <v>5045</v>
+        <v>15369</v>
       </c>
       <c r="C42" t="str">
-        <v>5602157</v>
+        <v>4715335</v>
       </c>
       <c r="D42" t="str">
-        <v>35140</v>
+        <v>24092</v>
       </c>
       <c r="E42" t="str">
-        <v>1021</v>
+        <v>448</v>
       </c>
       <c r="F42" t="str">
-        <v>651471</v>
+        <v>439894</v>
       </c>
       <c r="G42" t="str">
         <v>1840</v>
       </c>
       <c r="H42" t="str">
-        <v>96XJK85N889N</v>
+        <v>9RWUNX330Y7A</v>
       </c>
       <c r="I42" t="str">
-        <v>43820</v>
+        <v>44050</v>
       </c>
       <c r="J42" t="str">
-        <v>2028</v>
+        <v>1679</v>
       </c>
       <c r="K42" t="str">
-        <v>1268920</v>
+        <v>1022901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>劣质玩具</v>
+        <v>头很硬123</v>
       </c>
       <c r="B43" t="str">
-        <v>72124</v>
+        <v>30381</v>
       </c>
       <c r="C43" t="str">
-        <v>5562541</v>
+        <v>4712022</v>
       </c>
       <c r="D43" t="str">
-        <v>44607</v>
+        <v>29188</v>
       </c>
       <c r="E43" t="str">
-        <v>1939</v>
+        <v>554</v>
       </c>
       <c r="F43" t="str">
-        <v>914287</v>
+        <v>483719</v>
       </c>
       <c r="G43" t="str">
-        <v>1840</v>
+        <v>1796</v>
       </c>
       <c r="H43" t="str">
-        <v>AQRMQA2KH1MW</v>
+        <v>9DKM8851H7S4</v>
       </c>
       <c r="I43" t="str">
-        <v>43560</v>
+        <v>43460</v>
       </c>
       <c r="J43" t="str">
-        <v>2097</v>
+        <v>1904</v>
       </c>
       <c r="K43" t="str">
-        <v>1325733</v>
+        <v>928581</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>光暗天秤</v>
+        <v>疯狂大野猪</v>
       </c>
       <c r="B44" t="str">
-        <v>17946</v>
+        <v>11724</v>
       </c>
       <c r="C44" t="str">
-        <v>5547725</v>
+        <v>4694597</v>
       </c>
       <c r="D44" t="str">
-        <v>39058</v>
+        <v>24780</v>
       </c>
       <c r="E44" t="str">
-        <v>1469</v>
+        <v>193</v>
       </c>
       <c r="F44" t="str">
-        <v>738788</v>
+        <v>446419</v>
       </c>
       <c r="G44" t="str">
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="H44" t="str">
-        <v>94J60T3K05FD</v>
+        <v>94FNNF2WR48P</v>
       </c>
       <c r="I44" t="str">
-        <v>43650</v>
+        <v>43520</v>
       </c>
       <c r="J44" t="str">
-        <v>1801</v>
+        <v>1850</v>
       </c>
       <c r="K44" t="str">
-        <v>1308867</v>
+        <v>1171137</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>ゞSea</v>
+        <v>萝莉要臣死</v>
       </c>
       <c r="B45" t="str">
-        <v>20225</v>
+        <v>19538</v>
       </c>
       <c r="C45" t="str">
-        <v>5494900</v>
+        <v>4665521</v>
       </c>
       <c r="D45" t="str">
-        <v>31952</v>
+        <v>28791</v>
       </c>
       <c r="E45" t="str">
-        <v>1100</v>
+        <v>525</v>
       </c>
       <c r="F45" t="str">
-        <v>604975</v>
+        <v>502556</v>
       </c>
       <c r="G45" t="str">
         <v>1840</v>
       </c>
       <c r="H45" t="str">
-        <v>9YZG203T83S2</v>
+        <v>9KJW1N3UT841</v>
       </c>
       <c r="I45" t="str">
-        <v>43810</v>
+        <v>44600</v>
       </c>
       <c r="J45" t="str">
-        <v>2020</v>
+        <v>1563</v>
       </c>
       <c r="K45" t="str">
-        <v>1292925</v>
+        <v>998075</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>佛本风流</v>
+        <v>兰大大。</v>
       </c>
       <c r="B46" t="str">
-        <v>578</v>
+        <v>27247</v>
       </c>
       <c r="C46" t="str">
-        <v>5474968</v>
+        <v>4664387</v>
       </c>
       <c r="D46" t="str">
-        <v>35365</v>
+        <v>27808</v>
       </c>
       <c r="E46" t="str">
-        <v>1032</v>
+        <v>514</v>
       </c>
       <c r="F46" t="str">
-        <v>648617</v>
+        <v>500118</v>
       </c>
       <c r="G46" t="str">
         <v>1840</v>
       </c>
       <c r="H46" t="str">
-        <v>9689KF352FMY</v>
+        <v>97XYQG5004Y6</v>
       </c>
       <c r="I46" t="str">
-        <v>43780</v>
+        <v>44340</v>
       </c>
       <c r="J46" t="str">
-        <v>1853</v>
+        <v>1701</v>
       </c>
       <c r="K46" t="str">
-        <v>1281570</v>
+        <v>1141197</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>斌灬丶</v>
+        <v>皮皮桃</v>
       </c>
       <c r="B47" t="str">
-        <v>27264</v>
+        <v>14042</v>
       </c>
       <c r="C47" t="str">
-        <v>5467869</v>
+        <v>4661441</v>
       </c>
       <c r="D47" t="str">
-        <v>37901</v>
+        <v>37877</v>
       </c>
       <c r="E47" t="str">
-        <v>1136</v>
+        <v>457</v>
       </c>
       <c r="F47" t="str">
-        <v>695320</v>
+        <v>714981</v>
       </c>
       <c r="G47" t="str">
-        <v>1840</v>
+        <v>1830</v>
       </c>
       <c r="H47" t="str">
-        <v>98KS5Q4ST53J</v>
+        <v>9SQEPT389LTP</v>
       </c>
       <c r="I47" t="str">
-        <v>43590</v>
+        <v>41990</v>
       </c>
       <c r="J47" t="str">
-        <v>2013</v>
+        <v>1582</v>
       </c>
       <c r="K47" t="str">
-        <v>1243245</v>
+        <v>996198</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>jhcconan</v>
+        <v>希缇泽泽泽</v>
       </c>
       <c r="B48" t="str">
-        <v>6977</v>
+        <v>37906</v>
       </c>
       <c r="C48" t="str">
-        <v>5446604</v>
+        <v>4644449</v>
       </c>
       <c r="D48" t="str">
-        <v>40829</v>
+        <v>36332</v>
       </c>
       <c r="E48" t="str">
-        <v>922</v>
+        <v>445</v>
       </c>
       <c r="F48" t="str">
-        <v>878417</v>
+        <v>671210</v>
       </c>
       <c r="G48" t="str">
-        <v>1840</v>
+        <v>1774</v>
       </c>
       <c r="H48" t="str">
-        <v>95QL534Y8AP6</v>
+        <v>9GA1A256SEA8</v>
       </c>
       <c r="I48" t="str">
-        <v>44070</v>
+        <v>43720</v>
       </c>
       <c r="J48" t="str">
-        <v>1462</v>
+        <v>1636</v>
       </c>
       <c r="K48" t="str">
-        <v>1301698</v>
+        <v>723010</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>MRS小笨</v>
+        <v>对方正在飘</v>
       </c>
       <c r="B49" t="str">
-        <v>24441</v>
+        <v>28011</v>
       </c>
       <c r="C49" t="str">
-        <v>5444392</v>
+        <v>4638008</v>
       </c>
       <c r="D49" t="str">
-        <v>46565</v>
+        <v>22492</v>
       </c>
       <c r="E49" t="str">
-        <v>1036</v>
+        <v>397</v>
       </c>
       <c r="F49" t="str">
-        <v>814316</v>
+        <v>435431</v>
       </c>
       <c r="G49" t="str">
         <v>1840</v>
       </c>
       <c r="H49" t="str">
-        <v>9KCNC63RHS7F</v>
+        <v>9YZGPR3J03ZG</v>
       </c>
       <c r="I49" t="str">
-        <v>43550</v>
+        <v>42830</v>
       </c>
       <c r="J49" t="str">
-        <v>1873</v>
+        <v>1645</v>
       </c>
       <c r="K49" t="str">
-        <v>1425142</v>
+        <v>1055404</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>巡山大队长</v>
+        <v>海蒂་</v>
       </c>
       <c r="B50" t="str">
-        <v>13969</v>
+        <v>22624</v>
       </c>
       <c r="C50" t="str">
-        <v>5432254</v>
+        <v>4636809</v>
       </c>
       <c r="D50" t="str">
-        <v>33495</v>
+        <v>19499</v>
       </c>
       <c r="E50" t="str">
-        <v>1021</v>
+        <v>-1</v>
       </c>
       <c r="F50" t="str">
-        <v>627480</v>
+        <v>340718</v>
       </c>
       <c r="G50" t="str">
-        <v>1840</v>
+        <v>1683</v>
       </c>
       <c r="H50" t="str">
-        <v>9GN5PK5U92SS</v>
+        <v>9LF0N92K83G7</v>
       </c>
       <c r="I50" t="str">
-        <v>43790</v>
+        <v>43440</v>
       </c>
       <c r="J50" t="str">
-        <v>2070</v>
+        <v>1817</v>
       </c>
       <c r="K50" t="str">
-        <v>1212465</v>
+        <v>1003421</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>阿斯达卡</v>
+        <v>BADwoman</v>
       </c>
       <c r="B51" t="str">
-        <v>16961</v>
+        <v>355</v>
       </c>
       <c r="C51" t="str">
-        <v>5424519</v>
+        <v>4623272</v>
       </c>
       <c r="D51" t="str">
-        <v>29607</v>
+        <v>36378</v>
       </c>
       <c r="E51" t="str">
-        <v>947</v>
+        <v>500</v>
       </c>
       <c r="F51" t="str">
-        <v>593262</v>
+        <v>584927</v>
       </c>
       <c r="G51" t="str">
-        <v>1840</v>
+        <v>1822</v>
       </c>
       <c r="H51" t="str">
-        <v>97MQDU3M7MGR</v>
+        <v>98DSMC4J9E64</v>
       </c>
       <c r="I51" t="str">
-        <v>44050</v>
+        <v>42610</v>
       </c>
       <c r="J51" t="str">
-        <v>2013</v>
+        <v>1544</v>
       </c>
       <c r="K51" t="str">
-        <v>1256696</v>
+        <v>900780</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>xiare</v>
+        <v>水千山</v>
       </c>
       <c r="B52" t="str">
-        <v>5377</v>
+        <v>13438</v>
       </c>
       <c r="C52" t="str">
-        <v>5396933</v>
+        <v>4608002</v>
       </c>
       <c r="D52" t="str">
-        <v>49973</v>
+        <v>23630</v>
       </c>
       <c r="E52" t="str">
-        <v>1092</v>
+        <v>264</v>
       </c>
       <c r="F52" t="str">
-        <v>961432</v>
+        <v>437946</v>
       </c>
       <c r="G52" t="str">
         <v>1840</v>
       </c>
       <c r="H52" t="str">
-        <v>9G742S5ZJXRF</v>
+        <v>98T8AD6607A0</v>
       </c>
       <c r="I52" t="str">
-        <v>43140</v>
+        <v>44170</v>
       </c>
       <c r="J52" t="str">
-        <v>2127</v>
+        <v>1810</v>
       </c>
       <c r="K52" t="str">
-        <v>1084708</v>
+        <v>1010361</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Tsunamiysl</v>
+        <v>海南小旋风</v>
       </c>
       <c r="B53" t="str">
-        <v>12881</v>
+        <v>23871</v>
       </c>
       <c r="C53" t="str">
-        <v>5377413</v>
+        <v>4606049</v>
       </c>
       <c r="D53" t="str">
-        <v>32887</v>
+        <v>22424</v>
       </c>
       <c r="E53" t="str">
-        <v>984</v>
+        <v>443</v>
       </c>
       <c r="F53" t="str">
-        <v>638963</v>
+        <v>463253</v>
       </c>
       <c r="G53" t="str">
         <v>1840</v>
       </c>
       <c r="H53" t="str">
-        <v>9E2MDF4AH0UE</v>
+        <v>9KMDF842APKN</v>
       </c>
       <c r="I53" t="str">
-        <v>43480</v>
+        <v>44620</v>
       </c>
       <c r="J53" t="str">
-        <v>1834</v>
+        <v>1547</v>
       </c>
       <c r="K53" t="str">
-        <v>1097324</v>
+        <v>1069041</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Likasp</v>
+        <v>兔宗玉</v>
       </c>
       <c r="B54" t="str">
-        <v>13647</v>
+        <v>6199</v>
       </c>
       <c r="C54" t="str">
-        <v>5366421</v>
+        <v>4580334</v>
       </c>
       <c r="D54" t="str">
-        <v>39617</v>
+        <v>22637</v>
       </c>
       <c r="E54" t="str">
-        <v>-1</v>
+        <v>422</v>
       </c>
       <c r="F54" t="str">
-        <v>677942</v>
+        <v>419963</v>
       </c>
       <c r="G54" t="str">
         <v>1840</v>
       </c>
       <c r="H54" t="str">
-        <v>95UFWZ4ZRR28</v>
+        <v>9RX0MU5YRUA3</v>
       </c>
       <c r="I54" t="str">
-        <v>43610</v>
+        <v>44900</v>
       </c>
       <c r="J54" t="str">
-        <v>1939</v>
+        <v>1752</v>
       </c>
       <c r="K54" t="str">
-        <v>1329130</v>
+        <v>1055069</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>林小饼</v>
+        <v>张璐璐🌟</v>
       </c>
       <c r="B55" t="str">
-        <v>10764</v>
+        <v>35678</v>
       </c>
       <c r="C55" t="str">
-        <v>5337682</v>
+        <v>4571361</v>
       </c>
       <c r="D55" t="str">
-        <v>37846</v>
+        <v>27763</v>
       </c>
       <c r="E55" t="str">
-        <v>1035</v>
+        <v>528</v>
       </c>
       <c r="F55" t="str">
-        <v>692069</v>
+        <v>539099</v>
       </c>
       <c r="G55" t="str">
         <v>1840</v>
       </c>
       <c r="H55" t="str">
-        <v>97X1PU5DDF2W</v>
+        <v>97Z4LG3Z8AET</v>
       </c>
       <c r="I55" t="str">
-        <v>43720</v>
+        <v>43740</v>
       </c>
       <c r="J55" t="str">
-        <v>1720</v>
+        <v>1762</v>
       </c>
       <c r="K55" t="str">
-        <v>1282915</v>
+        <v>947148</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Summer🐰</v>
+        <v>冰冷的馒头</v>
       </c>
       <c r="B56" t="str">
-        <v>68679</v>
+        <v>10572</v>
       </c>
       <c r="C56" t="str">
-        <v>5335987</v>
+        <v>4534647</v>
       </c>
       <c r="D56" t="str">
-        <v>48574</v>
+        <v>20937</v>
       </c>
       <c r="E56" t="str">
-        <v>1366</v>
+        <v>476</v>
       </c>
       <c r="F56" t="str">
-        <v>937278</v>
+        <v>342392</v>
       </c>
       <c r="G56" t="str">
         <v>1840</v>
       </c>
       <c r="H56" t="str">
-        <v>AAFU4X4HSJDA</v>
+        <v>9E4EW45Y092L</v>
       </c>
       <c r="I56" t="str">
-        <v>42980</v>
+        <v>44150</v>
       </c>
       <c r="J56" t="str">
-        <v>1731</v>
+        <v>1501</v>
       </c>
       <c r="K56" t="str">
-        <v>1320112</v>
+        <v>876384</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>可乐的黑</v>
+        <v>爱新觉罗DJQ</v>
       </c>
       <c r="B57" t="str">
-        <v>39628</v>
+        <v>5073</v>
       </c>
       <c r="C57" t="str">
-        <v>5330920</v>
+        <v>4527300</v>
       </c>
       <c r="D57" t="str">
-        <v>37662</v>
+        <v>24406</v>
       </c>
       <c r="E57" t="str">
-        <v>987</v>
+        <v>-1</v>
       </c>
       <c r="F57" t="str">
-        <v>685316</v>
+        <v>408965</v>
       </c>
       <c r="G57" t="str">
         <v>1840</v>
       </c>
       <c r="H57" t="str">
-        <v>9HSLZE5MHTC6</v>
+        <v>9LNKH53K0X4L</v>
       </c>
       <c r="I57" t="str">
-        <v>43200</v>
+        <v>44230</v>
       </c>
       <c r="J57" t="str">
-        <v>2152</v>
+        <v>1457</v>
       </c>
       <c r="K57" t="str">
-        <v>1081857</v>
+        <v>1023015</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>琪琪的魏魏</v>
+        <v>Luffy Lo</v>
       </c>
       <c r="B58" t="str">
-        <v>23699</v>
+        <v>1013</v>
       </c>
       <c r="C58" t="str">
-        <v>5324038</v>
+        <v>4518077</v>
       </c>
       <c r="D58" t="str">
-        <v>50323</v>
+        <v>24213</v>
       </c>
       <c r="E58" t="str">
-        <v>2193</v>
+        <v>467</v>
       </c>
       <c r="F58" t="str">
-        <v>1042595</v>
+        <v>399923</v>
       </c>
       <c r="G58" t="str">
         <v>1840</v>
       </c>
       <c r="H58" t="str">
-        <v>9ETN4E5MHGPY</v>
+        <v>9P6MTX4NJG8J</v>
       </c>
       <c r="I58" t="str">
-        <v>42730</v>
+        <v>44310</v>
       </c>
       <c r="J58" t="str">
-        <v>1608</v>
+        <v>1773</v>
       </c>
       <c r="K58" t="str">
-        <v>1310869</v>
+        <v>937017</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>400级</v>
+        <v>han.晓旭</v>
       </c>
       <c r="B59" t="str">
-        <v>25607</v>
+        <v>796</v>
       </c>
       <c r="C59" t="str">
-        <v>5310934</v>
+        <v>4515274</v>
       </c>
       <c r="D59" t="str">
-        <v>32231</v>
+        <v>28255</v>
       </c>
       <c r="E59" t="str">
-        <v>1008</v>
+        <v>431</v>
       </c>
       <c r="F59" t="str">
-        <v>766899</v>
+        <v>465343</v>
       </c>
       <c r="G59" t="str">
-        <v>1840</v>
+        <v>1805</v>
       </c>
       <c r="H59" t="str">
-        <v>9CDMQC3ZHMGL</v>
+        <v>9JQA3Y2NRDMG</v>
       </c>
       <c r="I59" t="str">
-        <v>43600</v>
+        <v>40000</v>
       </c>
       <c r="J59" t="str">
-        <v>1589</v>
+        <v>1656</v>
       </c>
       <c r="K59" t="str">
-        <v>1402401</v>
+        <v>903744</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>鑫煜</v>
+        <v>emmm八千</v>
       </c>
       <c r="B60" t="str">
-        <v>967</v>
+        <v>16787</v>
       </c>
       <c r="C60" t="str">
-        <v>5304241</v>
+        <v>4512440</v>
       </c>
       <c r="D60" t="str">
-        <v>39663</v>
+        <v>23651</v>
       </c>
       <c r="E60" t="str">
-        <v>997</v>
+        <v>498</v>
       </c>
       <c r="F60" t="str">
-        <v>733081</v>
+        <v>443311</v>
       </c>
       <c r="G60" t="str">
         <v>1840</v>
       </c>
       <c r="H60" t="str">
-        <v>98N2SW2WANH7</v>
+        <v>952PJC46896G</v>
       </c>
       <c r="I60" t="str">
-        <v>43040</v>
+        <v>44210</v>
       </c>
       <c r="J60" t="str">
-        <v>1803</v>
+        <v>1676</v>
       </c>
       <c r="K60" t="str">
-        <v>1133000</v>
+        <v>1032220</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>南笑123</v>
+        <v>傻康康</v>
       </c>
       <c r="B61" t="str">
-        <v>7289</v>
+        <v>20784</v>
       </c>
       <c r="C61" t="str">
-        <v>5293406</v>
+        <v>4506974</v>
       </c>
       <c r="D61" t="str">
-        <v>53091</v>
+        <v>30301</v>
       </c>
       <c r="E61" t="str">
-        <v>884</v>
+        <v>1081</v>
       </c>
       <c r="F61" t="str">
-        <v>1068044</v>
+        <v>519600</v>
       </c>
       <c r="G61" t="str">
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="H61" t="str">
-        <v>9X56NC5GA4E3</v>
+        <v>9F2WWP4GJ77A</v>
       </c>
       <c r="I61" t="str">
-        <v>43730</v>
+        <v>43025</v>
       </c>
       <c r="J61" t="str">
-        <v>1513</v>
+        <v>1738</v>
       </c>
       <c r="K61" t="str">
-        <v>1219016</v>
+        <v>871638</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>小猪嘻嘻</v>
+        <v>嘿嘿咦嘿嘿</v>
       </c>
       <c r="B62" t="str">
-        <v>20528</v>
+        <v>21833</v>
       </c>
       <c r="C62" t="str">
-        <v>5253217</v>
+        <v>4499523</v>
       </c>
       <c r="D62" t="str">
-        <v>33080</v>
+        <v>25193</v>
       </c>
       <c r="E62" t="str">
-        <v>947</v>
+        <v>463</v>
       </c>
       <c r="F62" t="str">
-        <v>658142</v>
+        <v>458180</v>
       </c>
       <c r="G62" t="str">
-        <v>1840</v>
+        <v>1786</v>
       </c>
       <c r="H62" t="str">
-        <v>9Q89UW4WS2WQ</v>
+        <v>9UT9KR48S1UQ</v>
       </c>
       <c r="I62" t="str">
-        <v>43640</v>
+        <v>43870</v>
       </c>
       <c r="J62" t="str">
-        <v>2126</v>
+        <v>1726</v>
       </c>
       <c r="K62" t="str">
-        <v>1140753</v>
+        <v>926745</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>朵朵粑粑</v>
+        <v>完毕鬼爪</v>
       </c>
       <c r="B63" t="str">
-        <v>21351</v>
+        <v>45819</v>
       </c>
       <c r="C63" t="str">
-        <v>5242160</v>
+        <v>4453722</v>
       </c>
       <c r="D63" t="str">
-        <v>41233</v>
+        <v>20543</v>
       </c>
       <c r="E63" t="str">
-        <v>947</v>
+        <v>684</v>
       </c>
       <c r="F63" t="str">
-        <v>687016</v>
+        <v>429187</v>
       </c>
       <c r="G63" t="str">
-        <v>1823</v>
+        <v>1840</v>
       </c>
       <c r="H63" t="str">
-        <v>95T028510KN2</v>
+        <v>9Y364K468WWU</v>
       </c>
       <c r="I63" t="str">
-        <v>43600</v>
+        <v>44180</v>
       </c>
       <c r="J63" t="str">
-        <v>1690</v>
+        <v>1763</v>
       </c>
       <c r="K63" t="str">
-        <v>1058339</v>
+        <v>1067183</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>溪流探险家</v>
+        <v>小丸子呀</v>
       </c>
       <c r="B64" t="str">
-        <v>20076</v>
+        <v>4391</v>
       </c>
       <c r="C64" t="str">
-        <v>5234358</v>
+        <v>4387309</v>
       </c>
       <c r="D64" t="str">
-        <v>23671</v>
+        <v>19185</v>
       </c>
       <c r="E64" t="str">
-        <v>934</v>
+        <v>511</v>
       </c>
       <c r="F64" t="str">
-        <v>461995</v>
+        <v>362683</v>
       </c>
       <c r="G64" t="str">
         <v>1840</v>
       </c>
       <c r="H64" t="str">
-        <v>9SH9HZ4KHYAY</v>
+        <v>9SL2KD2T16J1</v>
       </c>
       <c r="I64" t="str">
-        <v>44000</v>
+        <v>44280</v>
       </c>
       <c r="J64" t="str">
-        <v>2101</v>
+        <v>1699</v>
       </c>
       <c r="K64" t="str">
-        <v>1303345</v>
+        <v>939150</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>请叫我奔哥</v>
+        <v>且待我</v>
       </c>
       <c r="B65" t="str">
-        <v>38731</v>
+        <v>42171</v>
       </c>
       <c r="C65" t="str">
-        <v>5233407</v>
+        <v>4387306</v>
       </c>
       <c r="D65" t="str">
-        <v>40802</v>
+        <v>20395</v>
       </c>
       <c r="E65" t="str">
-        <v>1276</v>
+        <v>522</v>
       </c>
       <c r="F65" t="str">
-        <v>801666</v>
+        <v>364651</v>
       </c>
       <c r="G65" t="str">
         <v>1840</v>
       </c>
       <c r="H65" t="str">
-        <v>966500581E76</v>
+        <v>9UNLGH5D0M16</v>
       </c>
       <c r="I65" t="str">
-        <v>43620</v>
+        <v>44060</v>
       </c>
       <c r="J65" t="str">
-        <v>1846</v>
+        <v>1771</v>
       </c>
       <c r="K65" t="str">
-        <v>1118022</v>
+        <v>954366</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>流浪的瓶子</v>
+        <v>画生</v>
       </c>
       <c r="B66" t="str">
-        <v>1011</v>
+        <v>29344</v>
       </c>
       <c r="C66" t="str">
-        <v>5222257</v>
+        <v>4343108</v>
       </c>
       <c r="D66" t="str">
-        <v>34941</v>
+        <v>19403</v>
       </c>
       <c r="E66" t="str">
-        <v>923</v>
+        <v>442</v>
       </c>
       <c r="F66" t="str">
-        <v>698170</v>
+        <v>359516</v>
       </c>
       <c r="G66" t="str">
-        <v>1840</v>
+        <v>1768</v>
       </c>
       <c r="H66" t="str">
-        <v>9EXQ6M5EHRS8</v>
+        <v>9J7SFZ56HM39</v>
       </c>
       <c r="I66" t="str">
-        <v>43660</v>
+        <v>43090</v>
       </c>
       <c r="J66" t="str">
-        <v>1754</v>
+        <v>1795</v>
       </c>
       <c r="K66" t="str">
-        <v>1162263</v>
+        <v>908898</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>断句</v>
+        <v>辣么簸箕板</v>
       </c>
       <c r="B67" t="str">
-        <v>28840</v>
+        <v>15687</v>
       </c>
       <c r="C67" t="str">
-        <v>5213893</v>
+        <v>4305738</v>
       </c>
       <c r="D67" t="str">
-        <v>32856</v>
+        <v>22185</v>
       </c>
       <c r="E67" t="str">
-        <v>970</v>
+        <v>479</v>
       </c>
       <c r="F67" t="str">
-        <v>601579</v>
+        <v>385895</v>
       </c>
       <c r="G67" t="str">
         <v>1840</v>
       </c>
       <c r="H67" t="str">
-        <v>9S87054R07NX</v>
+        <v>9GYQP63S80GA</v>
       </c>
       <c r="I67" t="str">
-        <v>43160</v>
+        <v>43250</v>
       </c>
       <c r="J67" t="str">
-        <v>1800</v>
+        <v>1625</v>
       </c>
       <c r="K67" t="str">
-        <v>1127465</v>
+        <v>917492</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>天涯一刀</v>
+        <v>larry骁</v>
       </c>
       <c r="B68" t="str">
-        <v>17963</v>
+        <v>59533</v>
       </c>
       <c r="C68" t="str">
-        <v>5212245</v>
+        <v>4285695</v>
       </c>
       <c r="D68" t="str">
-        <v>30344</v>
+        <v>20876</v>
       </c>
       <c r="E68" t="str">
-        <v>1050</v>
+        <v>934</v>
       </c>
       <c r="F68" t="str">
-        <v>538813</v>
+        <v>412581</v>
       </c>
       <c r="G68" t="str">
         <v>1840</v>
       </c>
       <c r="H68" t="str">
-        <v>94KT983UR0W4</v>
+        <v>A3334P49R9EC</v>
       </c>
       <c r="I68" t="str">
-        <v>42020</v>
+        <v>44070</v>
       </c>
       <c r="J68" t="str">
-        <v>2104</v>
+        <v>1528</v>
       </c>
       <c r="K68" t="str">
-        <v>1040908</v>
+        <v>905978</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>岑小淼</v>
+        <v>木木童鞋2号</v>
       </c>
       <c r="B69" t="str">
-        <v>21566</v>
+        <v>31498</v>
       </c>
       <c r="C69" t="str">
-        <v>5210010</v>
+        <v>4282548</v>
       </c>
       <c r="D69" t="str">
-        <v>43944</v>
+        <v>16541</v>
       </c>
       <c r="E69" t="str">
-        <v>1107</v>
+        <v>461</v>
       </c>
       <c r="F69" t="str">
-        <v>772840</v>
+        <v>277657</v>
       </c>
       <c r="G69" t="str">
         <v>1840</v>
       </c>
       <c r="H69" t="str">
-        <v>9509LZ3D9P6P</v>
+        <v>96KM0J56ALZ5</v>
       </c>
       <c r="I69" t="str">
-        <v>43650</v>
+        <v>43590</v>
       </c>
       <c r="J69" t="str">
-        <v>1737</v>
+        <v>1502</v>
       </c>
       <c r="K69" t="str">
-        <v>1067822</v>
+        <v>1015653</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>基地.</v>
+        <v>小胖子嘟嘟</v>
       </c>
       <c r="B70" t="str">
-        <v>919</v>
+        <v>7992</v>
       </c>
       <c r="C70" t="str">
-        <v>5207409</v>
+        <v>4231139</v>
       </c>
       <c r="D70" t="str">
-        <v>35867</v>
+        <v>24164</v>
       </c>
       <c r="E70" t="str">
-        <v>966</v>
+        <v>542</v>
       </c>
       <c r="F70" t="str">
-        <v>704572</v>
+        <v>379282</v>
       </c>
       <c r="G70" t="str">
         <v>1840</v>
       </c>
       <c r="H70" t="str">
-        <v>9ASL4Z4JRNMU</v>
+        <v>95LYK54Y01QK</v>
       </c>
       <c r="I70" t="str">
-        <v>43440</v>
+        <v>43415</v>
       </c>
       <c r="J70" t="str">
-        <v>1888</v>
+        <v>1528</v>
       </c>
       <c r="K70" t="str">
-        <v>1216590</v>
+        <v>876174</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>ckseven</v>
+        <v>湛蓝史莱姆</v>
       </c>
       <c r="B71" t="str">
-        <v>55942</v>
+        <v>29762</v>
       </c>
       <c r="C71" t="str">
-        <v>5176108</v>
+        <v>4202925</v>
       </c>
       <c r="D71" t="str">
-        <v>30309</v>
+        <v>21243</v>
       </c>
       <c r="E71" t="str">
-        <v>1220</v>
+        <v>588</v>
       </c>
       <c r="F71" t="str">
-        <v>591899</v>
+        <v>342879</v>
       </c>
       <c r="G71" t="str">
         <v>1840</v>
       </c>
       <c r="H71" t="str">
-        <v>ACGA61670YMQ</v>
+        <v>96ZM1Z5NHHKW</v>
       </c>
       <c r="I71" t="str">
-        <v>44190</v>
+        <v>43340</v>
       </c>
       <c r="J71" t="str">
-        <v>2057</v>
+        <v>1519</v>
       </c>
       <c r="K71" t="str">
-        <v>1205499</v>
+        <v>948928</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>🌟柒🌟</v>
+        <v>Giratina01</v>
       </c>
       <c r="B72" t="str">
-        <v>12836</v>
+        <v>59831</v>
       </c>
       <c r="C72" t="str">
-        <v>5164878</v>
+        <v>4201749</v>
       </c>
       <c r="D72" t="str">
-        <v>37809</v>
+        <v>24446</v>
       </c>
       <c r="E72" t="str">
-        <v>828</v>
+        <v>711</v>
       </c>
       <c r="F72" t="str">
-        <v>702604</v>
+        <v>476003</v>
       </c>
       <c r="G72" t="str">
-        <v>1740</v>
+        <v>1828</v>
       </c>
       <c r="H72" t="str">
-        <v>94ZZW842H7C0</v>
+        <v>A9CCE934H2CG</v>
       </c>
       <c r="I72" t="str">
-        <v>43180</v>
+        <v>44690</v>
       </c>
       <c r="J72" t="str">
-        <v>1721</v>
+        <v>1482</v>
       </c>
       <c r="K72" t="str">
-        <v>1152795</v>
+        <v>810915</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>🌟妞🌟</v>
+        <v>醉莫離觴</v>
       </c>
       <c r="B73" t="str">
-        <v>7233</v>
+        <v>62329</v>
       </c>
       <c r="C73" t="str">
-        <v>5156300</v>
+        <v>4170487</v>
       </c>
       <c r="D73" t="str">
-        <v>43498</v>
+        <v>25467</v>
       </c>
       <c r="E73" t="str">
-        <v>996</v>
+        <v>1358</v>
       </c>
       <c r="F73" t="str">
-        <v>677360</v>
+        <v>519542</v>
       </c>
       <c r="G73" t="str">
         <v>1840</v>
       </c>
       <c r="H73" t="str">
-        <v>9DHRS66483KJ</v>
+        <v>A8RWL24ATK59</v>
       </c>
       <c r="I73" t="str">
-        <v>43530</v>
+        <v>25635</v>
       </c>
       <c r="J73" t="str">
-        <v>1673</v>
+        <v>1702</v>
       </c>
       <c r="K73" t="str">
-        <v>1075598</v>
+        <v>933810</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>dionlei</v>
+        <v>天野</v>
       </c>
       <c r="B74" t="str">
-        <v>28249</v>
+        <v>5465</v>
       </c>
       <c r="C74" t="str">
-        <v>5150449</v>
+        <v>4166809</v>
       </c>
       <c r="D74" t="str">
-        <v>28133</v>
+        <v>28670</v>
       </c>
       <c r="E74" t="str">
-        <v>817</v>
+        <v>471</v>
       </c>
       <c r="F74" t="str">
-        <v>521554</v>
+        <v>506859</v>
       </c>
       <c r="G74" t="str">
         <v>1840</v>
       </c>
       <c r="H74" t="str">
-        <v>9W096T5UJHP0</v>
+        <v>94G70E3LR0JU</v>
       </c>
       <c r="I74" t="str">
-        <v>43930</v>
+        <v>39730</v>
       </c>
       <c r="J74" t="str">
-        <v>2062</v>
+        <v>1481</v>
       </c>
       <c r="K74" t="str">
-        <v>1064020</v>
+        <v>866783</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>笋干包噶</v>
+        <v>丨O口O丨</v>
       </c>
       <c r="B75" t="str">
-        <v>31380</v>
+        <v>67442</v>
       </c>
       <c r="C75" t="str">
-        <v>5111728</v>
+        <v>4104370</v>
       </c>
       <c r="D75" t="str">
-        <v>47593</v>
+        <v>22373</v>
       </c>
       <c r="E75" t="str">
-        <v>1095</v>
+        <v>458</v>
       </c>
       <c r="F75" t="str">
-        <v>850325</v>
+        <v>429907</v>
       </c>
       <c r="G75" t="str">
         <v>1840</v>
       </c>
       <c r="H75" t="str">
-        <v>9G597P5YJP6K</v>
+        <v>AMRKUS3TJ461</v>
       </c>
       <c r="I75" t="str">
-        <v>42890</v>
+        <v>40475</v>
       </c>
       <c r="J75" t="str">
-        <v>1684</v>
+        <v>1528</v>
       </c>
       <c r="K75" t="str">
-        <v>1171425</v>
+        <v>660354</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>70。</v>
+        <v>Kation</v>
       </c>
       <c r="B76" t="str">
-        <v>9701</v>
+        <v>63598</v>
       </c>
       <c r="C76" t="str">
-        <v>5109032</v>
+        <v>4091649</v>
       </c>
       <c r="D76" t="str">
-        <v>37653</v>
+        <v>21907</v>
       </c>
       <c r="E76" t="str">
-        <v>705</v>
+        <v>400</v>
       </c>
       <c r="F76" t="str">
-        <v>723065</v>
+        <v>418176</v>
       </c>
       <c r="G76" t="str">
-        <v>1840</v>
+        <v>1748</v>
       </c>
       <c r="H76" t="str">
-        <v>977WKS5EA2MY</v>
+        <v>9L1U7M33WRPM</v>
       </c>
       <c r="I76" t="str">
-        <v>43140</v>
+        <v>43400</v>
       </c>
       <c r="J76" t="str">
-        <v>1789</v>
+        <v>1582</v>
       </c>
       <c r="K76" t="str">
-        <v>1147391</v>
+        <v>889818</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Sithlord</v>
+        <v>-1</v>
       </c>
       <c r="B77" t="str">
-        <v>8850</v>
+        <v>74066</v>
       </c>
       <c r="C77" t="str">
-        <v>5091113</v>
+        <v>4049376</v>
       </c>
       <c r="D77" t="str">
-        <v>30427</v>
+        <v>9955</v>
       </c>
       <c r="E77" t="str">
         <v>-1</v>
       </c>
       <c r="F77" t="str">
-        <v>553735</v>
+        <v>169257</v>
       </c>
       <c r="G77" t="str">
         <v>1840</v>
       </c>
       <c r="H77" t="str">
-        <v>9HP76G488GPG</v>
+        <v>9EL8SG5DSGZF</v>
       </c>
       <c r="I77" t="str">
-        <v>43520</v>
+        <v>44350</v>
       </c>
       <c r="J77" t="str">
-        <v>1975</v>
+        <v>1653</v>
       </c>
       <c r="K77" t="str">
-        <v>981301</v>
+        <v>1139619</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>st00</v>
+        <v>有来有往</v>
       </c>
       <c r="B78" t="str">
-        <v>28662</v>
+        <v>20754</v>
       </c>
       <c r="C78" t="str">
-        <v>5085977</v>
+        <v>4005618</v>
       </c>
       <c r="D78" t="str">
-        <v>39855</v>
+        <v>18087</v>
       </c>
       <c r="E78" t="str">
-        <v>966</v>
+        <v>482</v>
       </c>
       <c r="F78" t="str">
-        <v>745495</v>
+        <v>263874</v>
       </c>
       <c r="G78" t="str">
-        <v>1840</v>
+        <v>1760</v>
       </c>
       <c r="H78" t="str">
-        <v>9NTNFY518AMW</v>
+        <v>9GGHU64PR350</v>
       </c>
       <c r="I78" t="str">
-        <v>43410</v>
+        <v>39565</v>
       </c>
       <c r="J78" t="str">
-        <v>1735</v>
+        <v>1413</v>
       </c>
       <c r="K78" t="str">
-        <v>991795</v>
+        <v>813055</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>雪月丶天</v>
+        <v>不要ＴＴ</v>
       </c>
       <c r="B79" t="str">
-        <v>3293</v>
+        <v>52121</v>
       </c>
       <c r="C79" t="str">
-        <v>5076054</v>
+        <v>3978321</v>
       </c>
       <c r="D79" t="str">
-        <v>40177</v>
+        <v>16061</v>
       </c>
       <c r="E79" t="str">
-        <v>1267</v>
+        <v>487</v>
       </c>
       <c r="F79" t="str">
-        <v>766841</v>
+        <v>272178</v>
       </c>
       <c r="G79" t="str">
         <v>1840</v>
       </c>
       <c r="H79" t="str">
-        <v>9SMCSR3H1C4Q</v>
+        <v>A7MM6K5M03WZ</v>
       </c>
       <c r="I79" t="str">
-        <v>43610</v>
+        <v>43255</v>
       </c>
       <c r="J79" t="str">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="K79" t="str">
-        <v>1275645</v>
+        <v>935331</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>🐮宝🐭</v>
+        <v>飞翔的童年</v>
       </c>
       <c r="B80" t="str">
-        <v>269</v>
+        <v>66816</v>
       </c>
       <c r="C80" t="str">
-        <v>5061475</v>
+        <v>3925581</v>
       </c>
       <c r="D80" t="str">
-        <v>32358</v>
+        <v>22823</v>
       </c>
       <c r="E80" t="str">
-        <v>975</v>
+        <v>565</v>
       </c>
       <c r="F80" t="str">
-        <v>668055</v>
+        <v>434297</v>
       </c>
       <c r="G80" t="str">
-        <v>1840</v>
+        <v>1828</v>
       </c>
       <c r="H80" t="str">
-        <v>A32HMJ2P87LT</v>
+        <v>9AUHXD2Y0WUT</v>
       </c>
       <c r="I80" t="str">
-        <v>43290</v>
+        <v>41445</v>
       </c>
       <c r="J80" t="str">
-        <v>1680</v>
+        <v>1356</v>
       </c>
       <c r="K80" t="str">
-        <v>1059735</v>
+        <v>809897</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>有趣的卡卡</v>
+        <v>独孤幻梦</v>
       </c>
       <c r="B81" t="str">
-        <v>26309</v>
+        <v>56567</v>
       </c>
       <c r="C81" t="str">
-        <v>5054497</v>
+        <v>3910803</v>
       </c>
       <c r="D81" t="str">
-        <v>34040</v>
+        <v>19684</v>
       </c>
       <c r="E81" t="str">
-        <v>956</v>
+        <v>433</v>
       </c>
       <c r="F81" t="str">
-        <v>615998</v>
+        <v>357206</v>
       </c>
       <c r="G81" t="str">
         <v>1840</v>
       </c>
       <c r="H81" t="str">
-        <v>9FTW3U66H60J</v>
+        <v>A5UYXW4YH081</v>
       </c>
       <c r="I81" t="str">
-        <v>43850</v>
+        <v>43940</v>
       </c>
       <c r="J81" t="str">
-        <v>1950</v>
+        <v>1317</v>
       </c>
       <c r="K81" t="str">
-        <v>1021474</v>
+        <v>807531</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>qweqwe123654</v>
+        <v>Thefate</v>
       </c>
       <c r="B82" t="str">
-        <v>13416</v>
+        <v>67962</v>
       </c>
       <c r="C82" t="str">
-        <v>5044320</v>
+        <v>3880223</v>
       </c>
       <c r="D82" t="str">
-        <v>28588</v>
+        <v>16881</v>
       </c>
       <c r="E82" t="str">
-        <v>924</v>
+        <v>487</v>
       </c>
       <c r="F82" t="str">
-        <v>574487</v>
+        <v>306120</v>
       </c>
       <c r="G82" t="str">
         <v>1840</v>
       </c>
       <c r="H82" t="str">
-        <v>9TLHNX5N8USA</v>
+        <v>9A4P8A4KHP8C</v>
       </c>
       <c r="I82" t="str">
-        <v>43550</v>
+        <v>42455</v>
       </c>
       <c r="J82" t="str">
-        <v>1775</v>
+        <v>1507</v>
       </c>
       <c r="K82" t="str">
-        <v>1103608</v>
+        <v>795768</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>独行者✨</v>
+        <v>rhonin1029</v>
       </c>
       <c r="B83" t="str">
-        <v>14554</v>
+        <v>68667</v>
       </c>
       <c r="C83" t="str">
-        <v>4908835</v>
+        <v>3848156</v>
       </c>
       <c r="D83" t="str">
-        <v>28714</v>
+        <v>15631</v>
       </c>
       <c r="E83" t="str">
-        <v>1004</v>
+        <v>483</v>
       </c>
       <c r="F83" t="str">
-        <v>491298</v>
+        <v>287890</v>
       </c>
       <c r="G83" t="str">
         <v>1840</v>
       </c>
       <c r="H83" t="str">
-        <v>9FACTA64RFGD</v>
+        <v>9F2H2X3K15CQ</v>
       </c>
       <c r="I83" t="str">
-        <v>43540</v>
+        <v>44305</v>
       </c>
       <c r="J83" t="str">
-        <v>1777</v>
+        <v>1522</v>
       </c>
       <c r="K83" t="str">
-        <v>1083491</v>
+        <v>806496</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>施主你好</v>
+        <v>小蚊蚊V5</v>
       </c>
       <c r="B84" t="str">
-        <v>27965</v>
+        <v>48147</v>
       </c>
       <c r="C84" t="str">
-        <v>4905011</v>
+        <v>3800261</v>
       </c>
       <c r="D84" t="str">
-        <v>31780</v>
+        <v>16195</v>
       </c>
       <c r="E84" t="str">
-        <v>1025</v>
+        <v>414</v>
       </c>
       <c r="F84" t="str">
-        <v>587581</v>
+        <v>263815</v>
       </c>
       <c r="G84" t="str">
         <v>1840</v>
       </c>
       <c r="H84" t="str">
-        <v>9730CF5P8XT8</v>
+        <v>9R29W25DH3T7</v>
       </c>
       <c r="I84" t="str">
-        <v>43560</v>
+        <v>43250</v>
       </c>
       <c r="J84" t="str">
-        <v>1830</v>
+        <v>1502</v>
       </c>
       <c r="K84" t="str">
-        <v>1071557</v>
+        <v>775687</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>悄悄的进村</v>
+        <v>BedExplorer</v>
       </c>
       <c r="B85" t="str">
-        <v>38929</v>
+        <v>65097</v>
       </c>
       <c r="C85" t="str">
-        <v>4864489</v>
+        <v>3777350</v>
       </c>
       <c r="D85" t="str">
-        <v>27849</v>
+        <v>26799</v>
       </c>
       <c r="E85" t="str">
-        <v>655</v>
+        <v>409</v>
       </c>
       <c r="F85" t="str">
-        <v>534173</v>
+        <v>461280</v>
       </c>
       <c r="G85" t="str">
         <v>1840</v>
       </c>
       <c r="H85" t="str">
-        <v>972R7X5M8UYG</v>
+        <v>A4J67J4PS5Q5</v>
       </c>
       <c r="I85" t="str">
-        <v>42790</v>
+        <v>43715</v>
       </c>
       <c r="J85" t="str">
-        <v>1653</v>
+        <v>1480</v>
       </c>
       <c r="K85" t="str">
-        <v>1216551</v>
+        <v>845084</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>我是达文西</v>
+        <v>大隻熊</v>
       </c>
       <c r="B86" t="str">
-        <v>27112</v>
+        <v>76829</v>
       </c>
       <c r="C86" t="str">
-        <v>4852896</v>
+        <v>3743257</v>
       </c>
       <c r="D86" t="str">
-        <v>19924</v>
+        <v>20665</v>
       </c>
       <c r="E86" t="str">
-        <v>937</v>
+        <v>556</v>
       </c>
       <c r="F86" t="str">
-        <v>372075</v>
+        <v>419461</v>
       </c>
       <c r="G86" t="str">
         <v>1840</v>
       </c>
       <c r="H86" t="str">
-        <v>9U4JT65ZHNR6</v>
+        <v>ASSF304K0PFR</v>
       </c>
       <c r="I86" t="str">
-        <v>43760</v>
+        <v>43065</v>
       </c>
       <c r="J86" t="str">
-        <v>1859</v>
+        <v>1502</v>
       </c>
       <c r="K86" t="str">
-        <v>1142630</v>
+        <v>693407</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>牛逼冈姆</v>
+        <v>cwy0519</v>
       </c>
       <c r="B87" t="str">
-        <v>42182</v>
+        <v>65370</v>
       </c>
       <c r="C87" t="str">
-        <v>4812733</v>
+        <v>3610678</v>
       </c>
       <c r="D87" t="str">
-        <v>23958</v>
+        <v>15727</v>
       </c>
       <c r="E87" t="str">
-        <v>1124</v>
+        <v>451</v>
       </c>
       <c r="F87" t="str">
-        <v>435926</v>
+        <v>239789</v>
       </c>
       <c r="G87" t="str">
         <v>1840</v>
       </c>
       <c r="H87" t="str">
-        <v>9E42KR41R6FQ</v>
+        <v>9FXRP7670LRM</v>
       </c>
       <c r="I87" t="str">
-        <v>43330</v>
+        <v>44420</v>
       </c>
       <c r="J87" t="str">
-        <v>1609</v>
+        <v>1503</v>
       </c>
       <c r="K87" t="str">
-        <v>1319235</v>
+        <v>732183</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>-1</v>
+        <v/>
       </c>
       <c r="B88" t="str">
-        <v>69693</v>
+        <v>76709</v>
       </c>
       <c r="C88" t="str">
-        <v>4713999</v>
+        <v>3398434</v>
       </c>
       <c r="D88" t="str">
-        <v>18429</v>
+        <v>13405</v>
       </c>
       <c r="E88" t="str">
-        <v>-1</v>
+        <v>472</v>
       </c>
       <c r="F88" t="str">
-        <v>364364</v>
+        <v>197008</v>
       </c>
       <c r="G88" t="str">
         <v>1840</v>
       </c>
       <c r="H88" t="str">
-        <v>97ES2A4NPDX7</v>
+        <v>96CS2P2WL9EX</v>
       </c>
       <c r="I88" t="str">
-        <v>43300</v>
+        <v>43875</v>
       </c>
       <c r="J88" t="str">
-        <v>1941</v>
+        <v>1500</v>
       </c>
       <c r="K88" t="str">
-        <v>1322920</v>
+        <v>594983</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Summer🐰</v>
+        <v>Yunny</v>
       </c>
       <c r="B89" t="str">
-        <v>36881</v>
+        <v>83803</v>
       </c>
       <c r="C89" t="str">
-        <v>4343554</v>
+        <v>3386021</v>
       </c>
       <c r="D89" t="str">
-        <v>28785</v>
+        <v>16593</v>
       </c>
       <c r="E89" t="str">
-        <v>309</v>
+        <v>568</v>
       </c>
       <c r="F89" t="str">
-        <v>537435</v>
+        <v>320470</v>
       </c>
       <c r="G89" t="str">
-        <v>1680</v>
+        <v>1840</v>
       </c>
       <c r="H89" t="str">
-        <v>A5XPE12UH6WP</v>
+        <v>C0EWT738H34Q</v>
       </c>
       <c r="I89" t="str">
-        <v>29695</v>
+        <v>37415</v>
       </c>
       <c r="J89" t="str">
-        <v>1813</v>
+        <v>1332</v>
       </c>
       <c r="K89" t="str">
-        <v>855641</v>
+        <v>864545</v>
       </c>
     </row>
   </sheetData>

--- a/work/20190901.xlsx
+++ b/work/20190901.xlsx
@@ -417,34 +417,34 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>BryanXu.XDD</v>
+        <v>37大魔王</v>
       </c>
       <c r="B2" t="str">
-        <v>20480</v>
+        <v>21542</v>
       </c>
       <c r="C2" t="str">
-        <v>8456653</v>
+        <v>9956335</v>
       </c>
       <c r="D2" t="str">
-        <v>94462</v>
+        <v>137829</v>
       </c>
       <c r="E2" t="str">
-        <v>873</v>
+        <v>1673</v>
       </c>
       <c r="F2" t="str">
-        <v>1983722</v>
+        <v>2679282</v>
       </c>
       <c r="G2" t="str">
         <v>1840</v>
       </c>
       <c r="H2" t="str">
-        <v>9YAKKK481HEH</v>
+        <v>A84GJ94RHXQW</v>
       </c>
       <c r="I2" t="str">
-        <v>45650</v>
+        <v>47860</v>
       </c>
       <c r="J2" t="str">
-        <v>2491</v>
+        <v>2405</v>
       </c>
       <c r="K2" t="str">
         <v>2227996</v>
@@ -452,3047 +452,3047 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>✨风骨✨</v>
+        <v>兜兜🌟转转</v>
       </c>
       <c r="B3" t="str">
-        <v>19236</v>
+        <v>1229</v>
       </c>
       <c r="C3" t="str">
-        <v>8271353</v>
+        <v>9463567</v>
       </c>
       <c r="D3" t="str">
-        <v>119695</v>
+        <v>129238</v>
       </c>
       <c r="E3" t="str">
-        <v>1224</v>
+        <v>247</v>
       </c>
       <c r="F3" t="str">
-        <v>2425832</v>
+        <v>2599527</v>
       </c>
       <c r="G3" t="str">
         <v>1840</v>
       </c>
       <c r="H3" t="str">
-        <v>9UCWHR3JSFAC</v>
+        <v>9W126S50JPNE</v>
       </c>
       <c r="I3" t="str">
-        <v>44460</v>
+        <v>48070</v>
       </c>
       <c r="J3" t="str">
-        <v>2266</v>
+        <v>2951</v>
       </c>
       <c r="K3" t="str">
-        <v>2189116</v>
+        <v>2208556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>H.晓旭</v>
+        <v>金牛座鲜森</v>
       </c>
       <c r="B4" t="str">
-        <v>1176</v>
+        <v>20265</v>
       </c>
       <c r="C4" t="str">
-        <v>7444972</v>
+        <v>9248486</v>
       </c>
       <c r="D4" t="str">
-        <v>81743</v>
+        <v>120393</v>
       </c>
       <c r="E4" t="str">
-        <v>458</v>
+        <v>237</v>
       </c>
       <c r="F4" t="str">
-        <v>1635914</v>
+        <v>2370829</v>
       </c>
       <c r="G4" t="str">
         <v>1840</v>
       </c>
       <c r="H4" t="str">
-        <v>9L2XQF2KN24F</v>
+        <v>96ERTZ5H83YU</v>
       </c>
       <c r="I4" t="str">
-        <v>43720</v>
+        <v>47860</v>
       </c>
       <c r="J4" t="str">
-        <v>2325</v>
+        <v>2905</v>
       </c>
       <c r="K4" t="str">
-        <v>1957656</v>
+        <v>2208556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>战神索尔</v>
+        <v>.挽歌丶</v>
       </c>
       <c r="B5" t="str">
-        <v>19217</v>
+        <v>20851</v>
       </c>
       <c r="C5" t="str">
-        <v>6826825</v>
+        <v>9181916</v>
       </c>
       <c r="D5" t="str">
-        <v>56316</v>
+        <v>109116</v>
       </c>
       <c r="E5" t="str">
-        <v>689</v>
+        <v>939</v>
       </c>
       <c r="F5" t="str">
-        <v>1068490</v>
+        <v>2093632</v>
       </c>
       <c r="G5" t="str">
         <v>1840</v>
       </c>
       <c r="H5" t="str">
-        <v>95ESD54RH6FU</v>
+        <v>9EPMSF558630</v>
       </c>
       <c r="I5" t="str">
-        <v>43940</v>
+        <v>47480</v>
       </c>
       <c r="J5" t="str">
-        <v>2738</v>
+        <v>2760</v>
       </c>
       <c r="K5" t="str">
-        <v>1616122</v>
+        <v>2227996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Sarah.Kerrigan</v>
+        <v>xxxxaa</v>
       </c>
       <c r="B6" t="str">
-        <v>49037</v>
+        <v>960</v>
       </c>
       <c r="C6" t="str">
-        <v>6344065</v>
+        <v>8554054</v>
       </c>
       <c r="D6" t="str">
-        <v>44748</v>
+        <v>117120</v>
       </c>
       <c r="E6" t="str">
-        <v>1367</v>
+        <v>937</v>
       </c>
       <c r="F6" t="str">
-        <v>928588</v>
+        <v>2290169</v>
       </c>
       <c r="G6" t="str">
         <v>1840</v>
       </c>
       <c r="H6" t="str">
-        <v>A5NNZ83AJ12Y</v>
+        <v>96CSJ65E0257</v>
       </c>
       <c r="I6" t="str">
-        <v>44710</v>
+        <v>48070</v>
       </c>
       <c r="J6" t="str">
-        <v>2524</v>
+        <v>2335</v>
       </c>
       <c r="K6" t="str">
-        <v>1536969</v>
+        <v>2208556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>叫吾老衲</v>
+        <v>zzjzmg</v>
       </c>
       <c r="B7" t="str">
-        <v>62383</v>
+        <v>32933</v>
       </c>
       <c r="C7" t="str">
-        <v>5899426</v>
+        <v>8131567</v>
       </c>
       <c r="D7" t="str">
-        <v>71533</v>
+        <v>97835</v>
       </c>
       <c r="E7" t="str">
-        <v>484</v>
+        <v>1753</v>
       </c>
       <c r="F7" t="str">
-        <v>1440224</v>
+        <v>1947766</v>
       </c>
       <c r="G7" t="str">
-        <v>1748</v>
+        <v>1840</v>
       </c>
       <c r="H7" t="str">
-        <v>AJJEE15YH5KK</v>
+        <v>9GL3GC568GM7</v>
       </c>
       <c r="I7" t="str">
-        <v>42045</v>
+        <v>47630</v>
       </c>
       <c r="J7" t="str">
-        <v>1626</v>
+        <v>2276</v>
       </c>
       <c r="K7" t="str">
-        <v>1420356</v>
+        <v>2227996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>✨星酱酱✨</v>
+        <v>风神七少°</v>
       </c>
       <c r="B8" t="str">
-        <v>67709</v>
+        <v>66</v>
       </c>
       <c r="C8" t="str">
-        <v>5627416</v>
+        <v>7818555</v>
       </c>
       <c r="D8" t="str">
-        <v>49423</v>
+        <v>100030</v>
       </c>
       <c r="E8" t="str">
-        <v>1115</v>
+        <v>444</v>
       </c>
       <c r="F8" t="str">
-        <v>1013827</v>
+        <v>2020924</v>
       </c>
       <c r="G8" t="str">
         <v>1840</v>
       </c>
       <c r="H8" t="str">
-        <v>9FS8EK429HR8</v>
+        <v>9UJDR15Q86QR</v>
       </c>
       <c r="I8" t="str">
-        <v>44460</v>
+        <v>47460</v>
       </c>
       <c r="J8" t="str">
-        <v>2004</v>
+        <v>2584</v>
       </c>
       <c r="K8" t="str">
-        <v>1461376</v>
+        <v>1751691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>欢弹</v>
+        <v>夜月花语</v>
       </c>
       <c r="B9" t="str">
-        <v>10012</v>
+        <v>17275</v>
       </c>
       <c r="C9" t="str">
-        <v>5614637</v>
+        <v>7809984</v>
       </c>
       <c r="D9" t="str">
-        <v>36511</v>
+        <v>92254</v>
       </c>
       <c r="E9" t="str">
-        <v>430</v>
+        <v>734</v>
       </c>
       <c r="F9" t="str">
-        <v>703195</v>
+        <v>1843392</v>
       </c>
       <c r="G9" t="str">
         <v>1840</v>
       </c>
       <c r="H9" t="str">
-        <v>9HT8YP428XQL</v>
+        <v>994SEG49M2JX</v>
       </c>
       <c r="I9" t="str">
-        <v>43930</v>
+        <v>47040</v>
       </c>
       <c r="J9" t="str">
-        <v>1986</v>
+        <v>2201</v>
       </c>
       <c r="K9" t="str">
-        <v>1427113</v>
+        <v>2170810</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Gumballppt</v>
+        <v>马克西姆.Max</v>
       </c>
       <c r="B10" t="str">
-        <v>24285</v>
+        <v>15458</v>
       </c>
       <c r="C10" t="str">
-        <v>5580181</v>
+        <v>7732832</v>
       </c>
       <c r="D10" t="str">
-        <v>53658</v>
+        <v>64621</v>
       </c>
       <c r="E10" t="str">
-        <v>831</v>
+        <v>524</v>
       </c>
       <c r="F10" t="str">
-        <v>1017754</v>
+        <v>1226881</v>
       </c>
       <c r="G10" t="str">
-        <v>1691</v>
+        <v>1840</v>
       </c>
       <c r="H10" t="str">
-        <v>9F7ZQD3T02SD</v>
+        <v>9GKJQ555HE7G</v>
       </c>
       <c r="I10" t="str">
-        <v>41920</v>
+        <v>48040</v>
       </c>
       <c r="J10" t="str">
-        <v>2340</v>
+        <v>2486</v>
       </c>
       <c r="K10" t="str">
-        <v>939604</v>
+        <v>2170911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>大企鹅鹅鹅</v>
+        <v>❀ 假语</v>
       </c>
       <c r="B11" t="str">
-        <v>675</v>
+        <v>25824</v>
       </c>
       <c r="C11" t="str">
-        <v>5570180</v>
+        <v>7640044</v>
       </c>
       <c r="D11" t="str">
-        <v>52704</v>
+        <v>98446</v>
       </c>
       <c r="E11" t="str">
-        <v>548</v>
+        <v>770</v>
       </c>
       <c r="F11" t="str">
-        <v>1027682</v>
+        <v>1946804</v>
       </c>
       <c r="G11" t="str">
         <v>1840</v>
       </c>
       <c r="H11" t="str">
-        <v>94ES8T2P00F6</v>
+        <v>9MT8T62M8TP7</v>
       </c>
       <c r="I11" t="str">
-        <v>42300</v>
+        <v>47210</v>
       </c>
       <c r="J11" t="str">
-        <v>1742</v>
+        <v>2036</v>
       </c>
       <c r="K11" t="str">
-        <v>1244391</v>
+        <v>1894002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>三文鱼shim</v>
+        <v>Pirate.Mon…</v>
       </c>
       <c r="B12" t="str">
-        <v>36059</v>
+        <v>59362</v>
       </c>
       <c r="C12" t="str">
-        <v>5420354</v>
+        <v>7563087</v>
       </c>
       <c r="D12" t="str">
-        <v>47217</v>
+        <v>83569</v>
       </c>
       <c r="E12" t="str">
-        <v>1350</v>
+        <v>521</v>
       </c>
       <c r="F12" t="str">
-        <v>912372</v>
+        <v>1705147</v>
       </c>
       <c r="G12" t="str">
         <v>1840</v>
       </c>
       <c r="H12" t="str">
-        <v>A0UJA9670FSF</v>
+        <v>AHC4CF4ZR684</v>
       </c>
       <c r="I12" t="str">
-        <v>43890</v>
+        <v>47700</v>
       </c>
       <c r="J12" t="str">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="K12" t="str">
-        <v>1307215</v>
+        <v>2227996</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>zzz~</v>
+        <v>hagd</v>
       </c>
       <c r="B13" t="str">
-        <v>233</v>
+        <v>22260</v>
       </c>
       <c r="C13" t="str">
-        <v>5373878</v>
+        <v>7528609</v>
       </c>
       <c r="D13" t="str">
-        <v>53738</v>
+        <v>79826</v>
       </c>
       <c r="E13" t="str">
-        <v>673</v>
+        <v>532</v>
       </c>
       <c r="F13" t="str">
-        <v>1006155</v>
+        <v>1549185</v>
       </c>
       <c r="G13" t="str">
         <v>1840</v>
       </c>
       <c r="H13" t="str">
-        <v>94FEDD2P0350</v>
+        <v>9C3GHT5F1MDN</v>
       </c>
       <c r="I13" t="str">
-        <v>44380</v>
+        <v>47860</v>
       </c>
       <c r="J13" t="str">
-        <v>1617</v>
+        <v>2642</v>
       </c>
       <c r="K13" t="str">
-        <v>1113864</v>
+        <v>1637529</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>基丨拉</v>
+        <v>孤城狂少</v>
       </c>
       <c r="B14" t="str">
-        <v>4885</v>
+        <v>17934</v>
       </c>
       <c r="C14" t="str">
-        <v>5331318</v>
+        <v>7523347</v>
       </c>
       <c r="D14" t="str">
-        <v>45334</v>
+        <v>97983</v>
       </c>
       <c r="E14" t="str">
-        <v>588</v>
+        <v>498</v>
       </c>
       <c r="F14" t="str">
-        <v>849296</v>
+        <v>1938668</v>
       </c>
       <c r="G14" t="str">
         <v>1840</v>
       </c>
       <c r="H14" t="str">
-        <v>9SCL0E4R8HHE</v>
+        <v>94MLWK3Q87NU</v>
       </c>
       <c r="I14" t="str">
-        <v>43600</v>
+        <v>47520</v>
       </c>
       <c r="J14" t="str">
-        <v>1703</v>
+        <v>2162</v>
       </c>
       <c r="K14" t="str">
-        <v>1075409</v>
+        <v>1930411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>哥布鲁托</v>
+        <v>祈愿之剑</v>
       </c>
       <c r="B15" t="str">
-        <v>8347</v>
+        <v>81910</v>
       </c>
       <c r="C15" t="str">
-        <v>5285733</v>
+        <v>7506480</v>
       </c>
       <c r="D15" t="str">
-        <v>38030</v>
+        <v>47345</v>
       </c>
       <c r="E15" t="str">
-        <v>475</v>
+        <v>1274</v>
       </c>
       <c r="F15" t="str">
-        <v>703639</v>
+        <v>911387</v>
       </c>
       <c r="G15" t="str">
-        <v>1760</v>
+        <v>1840</v>
       </c>
       <c r="H15" t="str">
-        <v>96XGF85Q07YG</v>
+        <v>C51KE334R2TA</v>
       </c>
       <c r="I15" t="str">
-        <v>43860</v>
+        <v>48060</v>
       </c>
       <c r="J15" t="str">
-        <v>1872</v>
+        <v>2259</v>
       </c>
       <c r="K15" t="str">
-        <v>1072271</v>
+        <v>2227996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>独家记忆1003</v>
+        <v>月下我孤行</v>
       </c>
       <c r="B16" t="str">
-        <v>3804</v>
+        <v>17443</v>
       </c>
       <c r="C16" t="str">
-        <v>5138577</v>
+        <v>7396058</v>
       </c>
       <c r="D16" t="str">
-        <v>31083</v>
+        <v>101071</v>
       </c>
       <c r="E16" t="str">
-        <v>443</v>
+        <v>762</v>
       </c>
       <c r="F16" t="str">
-        <v>448015</v>
+        <v>1989455</v>
       </c>
       <c r="G16" t="str">
-        <v>1840</v>
+        <v>1821</v>
       </c>
       <c r="H16" t="str">
-        <v>9KNH253TC06Q</v>
+        <v>94HPFN3D04HY</v>
       </c>
       <c r="I16" t="str">
-        <v>44740</v>
+        <v>47490</v>
       </c>
       <c r="J16" t="str">
-        <v>2065</v>
+        <v>1868</v>
       </c>
       <c r="K16" t="str">
-        <v>964602</v>
+        <v>1997965</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>爱兮自己啊</v>
+        <v>酷炫</v>
       </c>
       <c r="B17" t="str">
-        <v>4449</v>
+        <v>14624</v>
       </c>
       <c r="C17" t="str">
-        <v>5129422</v>
+        <v>7270749</v>
       </c>
       <c r="D17" t="str">
-        <v>29315</v>
+        <v>62869</v>
       </c>
       <c r="E17" t="str">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="F17" t="str">
-        <v>552532</v>
+        <v>1236904</v>
       </c>
       <c r="G17" t="str">
         <v>1840</v>
       </c>
       <c r="H17" t="str">
-        <v>94SDAN3QRP1M</v>
+        <v>9W6MCZ430FJ9</v>
       </c>
       <c r="I17" t="str">
-        <v>43630</v>
+        <v>47360</v>
       </c>
       <c r="J17" t="str">
-        <v>1904</v>
+        <v>2346</v>
       </c>
       <c r="K17" t="str">
-        <v>1134543</v>
+        <v>2227996</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>曾多多</v>
+        <v>相见如故</v>
       </c>
       <c r="B18" t="str">
-        <v>3956</v>
+        <v>18257</v>
       </c>
       <c r="C18" t="str">
-        <v>5118225</v>
+        <v>7220957</v>
       </c>
       <c r="D18" t="str">
-        <v>17285</v>
+        <v>63948</v>
       </c>
       <c r="E18" t="str">
-        <v>-1</v>
+        <v>449</v>
       </c>
       <c r="F18" t="str">
-        <v>343839</v>
+        <v>1280201</v>
       </c>
       <c r="G18" t="str">
         <v>1840</v>
       </c>
       <c r="H18" t="str">
-        <v>9SUUYU2KR5J5</v>
+        <v>A6L3WK5DHE73</v>
       </c>
       <c r="I18" t="str">
-        <v>45120</v>
+        <v>47670</v>
       </c>
       <c r="J18" t="str">
-        <v>1994</v>
+        <v>2880</v>
       </c>
       <c r="K18" t="str">
-        <v>1115859</v>
+        <v>1448902</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>吴家小爷</v>
+        <v>承一君</v>
       </c>
       <c r="B19" t="str">
-        <v>6079</v>
+        <v>9848</v>
       </c>
       <c r="C19" t="str">
-        <v>5100373</v>
+        <v>7186305</v>
       </c>
       <c r="D19" t="str">
-        <v>39120</v>
+        <v>80891</v>
       </c>
       <c r="E19" t="str">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F19" t="str">
-        <v>703166</v>
+        <v>1375402</v>
       </c>
       <c r="G19" t="str">
         <v>1840</v>
       </c>
       <c r="H19" t="str">
-        <v>96H4EJ2WCUF2</v>
+        <v>94YXZZ40R5MA</v>
       </c>
       <c r="I19" t="str">
-        <v>43460</v>
+        <v>47400</v>
       </c>
       <c r="J19" t="str">
-        <v>1838</v>
+        <v>2004</v>
       </c>
       <c r="K19" t="str">
-        <v>909508</v>
+        <v>1896877</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>蜗牛大大大</v>
+        <v>萌萌小宸宸</v>
       </c>
       <c r="B20" t="str">
-        <v>19996</v>
+        <v>3217</v>
       </c>
       <c r="C20" t="str">
-        <v>5088841</v>
+        <v>7084341</v>
       </c>
       <c r="D20" t="str">
-        <v>33861</v>
+        <v>115382</v>
       </c>
       <c r="E20" t="str">
-        <v>499</v>
+        <v>-1</v>
       </c>
       <c r="F20" t="str">
-        <v>642835</v>
+        <v>2207873</v>
       </c>
       <c r="G20" t="str">
-        <v>1768</v>
+        <v>1805</v>
       </c>
       <c r="H20" t="str">
-        <v>9WEEN42WS235</v>
+        <v>96AUX35FH15L</v>
       </c>
       <c r="I20" t="str">
-        <v>40000</v>
+        <v>46290</v>
       </c>
       <c r="J20" t="str">
-        <v>1768</v>
+        <v>1896</v>
       </c>
       <c r="K20" t="str">
-        <v>1177946</v>
+        <v>1749673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>一剑闯江湖</v>
+        <v>小神猫</v>
       </c>
       <c r="B21" t="str">
-        <v>11198</v>
+        <v>11386</v>
       </c>
       <c r="C21" t="str">
-        <v>5061992</v>
+        <v>7072868</v>
       </c>
       <c r="D21" t="str">
-        <v>44526</v>
+        <v>85903</v>
       </c>
       <c r="E21" t="str">
-        <v>525</v>
+        <v>1219</v>
       </c>
       <c r="F21" t="str">
-        <v>859804</v>
+        <v>1661362</v>
       </c>
       <c r="G21" t="str">
-        <v>1719</v>
+        <v>1840</v>
       </c>
       <c r="H21" t="str">
-        <v>977QXF5F22XG</v>
+        <v>9GW7293M1AQ4</v>
       </c>
       <c r="I21" t="str">
-        <v>44450</v>
+        <v>47400</v>
       </c>
       <c r="J21" t="str">
-        <v>1609</v>
+        <v>2091</v>
       </c>
       <c r="K21" t="str">
-        <v>1053944</v>
+        <v>1713797</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>混啊混</v>
+        <v>61桑</v>
       </c>
       <c r="B22" t="str">
-        <v>1542</v>
+        <v>8833</v>
       </c>
       <c r="C22" t="str">
-        <v>5052455</v>
+        <v>7047683</v>
       </c>
       <c r="D22" t="str">
-        <v>23745</v>
+        <v>57909</v>
       </c>
       <c r="E22" t="str">
-        <v>496</v>
+        <v>1769</v>
       </c>
       <c r="F22" t="str">
-        <v>494433</v>
+        <v>1121291</v>
       </c>
       <c r="G22" t="str">
         <v>1840</v>
       </c>
       <c r="H22" t="str">
-        <v>955SML4K02R9</v>
+        <v>9U5QMY47HTWD</v>
       </c>
       <c r="I22" t="str">
-        <v>44510</v>
+        <v>47730</v>
       </c>
       <c r="J22" t="str">
-        <v>2004</v>
+        <v>2052</v>
       </c>
       <c r="K22" t="str">
-        <v>1062163</v>
+        <v>1963621</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>爱新觉罗DJQ</v>
+        <v>森🇨🇳</v>
       </c>
       <c r="B23" t="str">
-        <v>39619</v>
+        <v>13556</v>
       </c>
       <c r="C23" t="str">
-        <v>5031705</v>
+        <v>6631491</v>
       </c>
       <c r="D23" t="str">
-        <v>47374</v>
+        <v>58853</v>
       </c>
       <c r="E23" t="str">
-        <v>-1</v>
+        <v>380</v>
       </c>
       <c r="F23" t="str">
-        <v>931967</v>
+        <v>1146540</v>
       </c>
       <c r="G23" t="str">
         <v>1840</v>
       </c>
       <c r="H23" t="str">
-        <v>9SDRNT4RRMTJ</v>
+        <v>9K1MET3T2R6M</v>
       </c>
       <c r="I23" t="str">
-        <v>34515</v>
+        <v>46760</v>
       </c>
       <c r="J23" t="str">
-        <v>1733</v>
+        <v>2250</v>
       </c>
       <c r="K23" t="str">
-        <v>832380</v>
+        <v>1700121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>&gt;孤单的灵魂</v>
+        <v>利昂</v>
       </c>
       <c r="B24" t="str">
-        <v>14650</v>
+        <v>31810</v>
       </c>
       <c r="C24" t="str">
-        <v>5003358</v>
+        <v>6590572</v>
       </c>
       <c r="D24" t="str">
-        <v>43138</v>
+        <v>66179</v>
       </c>
       <c r="E24" t="str">
-        <v>566</v>
+        <v>722</v>
       </c>
       <c r="F24" t="str">
-        <v>754927</v>
+        <v>1228322</v>
       </c>
       <c r="G24" t="str">
         <v>1840</v>
       </c>
       <c r="H24" t="str">
-        <v>94ERHX2U808Q</v>
+        <v>95LG8P5100HG</v>
       </c>
       <c r="I24" t="str">
-        <v>43760</v>
+        <v>47370</v>
       </c>
       <c r="J24" t="str">
-        <v>1725</v>
+        <v>2256</v>
       </c>
       <c r="K24" t="str">
-        <v>1053213</v>
+        <v>1376110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>叶子猪</v>
+        <v>Cooky🐰</v>
       </c>
       <c r="B25" t="str">
-        <v>1347</v>
+        <v>2326</v>
       </c>
       <c r="C25" t="str">
-        <v>5000202</v>
+        <v>6576173</v>
       </c>
       <c r="D25" t="str">
-        <v>39988</v>
+        <v>92126</v>
       </c>
       <c r="E25" t="str">
-        <v>429</v>
+        <v>727</v>
       </c>
       <c r="F25" t="str">
-        <v>836257</v>
+        <v>1834438</v>
       </c>
       <c r="G25" t="str">
         <v>1840</v>
       </c>
       <c r="H25" t="str">
-        <v>95EF8W2LCPL0</v>
+        <v>9DLQMU5QRCF1</v>
       </c>
       <c r="I25" t="str">
-        <v>43200</v>
+        <v>45330</v>
       </c>
       <c r="J25" t="str">
-        <v>1620</v>
+        <v>1980</v>
       </c>
       <c r="K25" t="str">
-        <v>1039618</v>
+        <v>1295085</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>静静De一个</v>
+        <v>空悟顿</v>
       </c>
       <c r="B26" t="str">
-        <v>10919</v>
+        <v>1499</v>
       </c>
       <c r="C26" t="str">
-        <v>4993178</v>
+        <v>6511987</v>
       </c>
       <c r="D26" t="str">
-        <v>24130</v>
+        <v>62034</v>
       </c>
       <c r="E26" t="str">
-        <v>537</v>
+        <v>490</v>
       </c>
       <c r="F26" t="str">
-        <v>354223</v>
+        <v>1160778</v>
       </c>
       <c r="G26" t="str">
         <v>1840</v>
       </c>
       <c r="H26" t="str">
-        <v>9KNTMQ5G2TXR</v>
+        <v>94LF843RR2FC</v>
       </c>
       <c r="I26" t="str">
-        <v>44080</v>
+        <v>47450</v>
       </c>
       <c r="J26" t="str">
-        <v>2104</v>
+        <v>2449</v>
       </c>
       <c r="K26" t="str">
-        <v>979013</v>
+        <v>1319021</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>卫国公</v>
+        <v>AG992</v>
       </c>
       <c r="B27" t="str">
-        <v>4898</v>
+        <v>25499</v>
       </c>
       <c r="C27" t="str">
-        <v>4986156</v>
+        <v>6497687</v>
       </c>
       <c r="D27" t="str">
-        <v>22651</v>
+        <v>47439</v>
       </c>
       <c r="E27" t="str">
-        <v>491</v>
+        <v>390</v>
       </c>
       <c r="F27" t="str">
-        <v>448094</v>
+        <v>881581</v>
       </c>
       <c r="G27" t="str">
         <v>1840</v>
       </c>
       <c r="H27" t="str">
-        <v>A548S74SAQK5</v>
+        <v>9CS70J5Z83N0</v>
       </c>
       <c r="I27" t="str">
-        <v>44650</v>
+        <v>46520</v>
       </c>
       <c r="J27" t="str">
-        <v>1511</v>
+        <v>2245</v>
       </c>
       <c r="K27" t="str">
-        <v>1306785</v>
+        <v>1791753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>石头爸爸</v>
+        <v>豆浆米粉</v>
       </c>
       <c r="B28" t="str">
-        <v>13446</v>
+        <v>172</v>
       </c>
       <c r="C28" t="str">
-        <v>4965071</v>
+        <v>6487407</v>
       </c>
       <c r="D28" t="str">
-        <v>29386</v>
+        <v>51795</v>
       </c>
       <c r="E28" t="str">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="F28" t="str">
-        <v>510311</v>
+        <v>1079382</v>
       </c>
       <c r="G28" t="str">
         <v>1840</v>
       </c>
       <c r="H28" t="str">
-        <v>94LZWQ3SH4R4</v>
+        <v>94H5RE3LH1U8</v>
       </c>
       <c r="I28" t="str">
-        <v>43140</v>
+        <v>47370</v>
       </c>
       <c r="J28" t="str">
-        <v>1878</v>
+        <v>2551</v>
       </c>
       <c r="K28" t="str">
-        <v>1104897</v>
+        <v>1258251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>汏鲸鱼</v>
+        <v>後後後後天</v>
       </c>
       <c r="B29" t="str">
-        <v>4508</v>
+        <v>25812</v>
       </c>
       <c r="C29" t="str">
-        <v>4952503</v>
+        <v>6431851</v>
       </c>
       <c r="D29" t="str">
-        <v>25126</v>
+        <v>80560</v>
       </c>
       <c r="E29" t="str">
-        <v>580</v>
+        <v>602</v>
       </c>
       <c r="F29" t="str">
-        <v>457864</v>
+        <v>1589967</v>
       </c>
       <c r="G29" t="str">
         <v>1840</v>
       </c>
       <c r="H29" t="str">
-        <v>9609F44H1H9P</v>
+        <v>98DQWS34JD6A</v>
       </c>
       <c r="I29" t="str">
-        <v>44870</v>
+        <v>47250</v>
       </c>
       <c r="J29" t="str">
-        <v>2045</v>
+        <v>1898</v>
       </c>
       <c r="K29" t="str">
-        <v>1118852</v>
+        <v>1332370</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>大大说帅</v>
+        <v>又升仙了</v>
       </c>
       <c r="B30" t="str">
-        <v>20650</v>
+        <v>574</v>
       </c>
       <c r="C30" t="str">
-        <v>4930810</v>
+        <v>6427101</v>
       </c>
       <c r="D30" t="str">
-        <v>30345</v>
+        <v>73448</v>
       </c>
       <c r="E30" t="str">
-        <v>-1</v>
+        <v>473</v>
       </c>
       <c r="F30" t="str">
-        <v>592401</v>
+        <v>1410761</v>
       </c>
       <c r="G30" t="str">
         <v>1840</v>
       </c>
       <c r="H30" t="str">
-        <v>9S0XQM3KJ8YZ</v>
+        <v>956SLX49HRPD</v>
       </c>
       <c r="I30" t="str">
-        <v>43720</v>
+        <v>47360</v>
       </c>
       <c r="J30" t="str">
-        <v>1748</v>
+        <v>1646</v>
       </c>
       <c r="K30" t="str">
-        <v>1041479</v>
+        <v>1669211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>青青小短腿</v>
+        <v>曾经的温柔</v>
       </c>
       <c r="B31" t="str">
-        <v>37686</v>
+        <v>8839</v>
       </c>
       <c r="C31" t="str">
-        <v>4923346</v>
+        <v>6408584</v>
       </c>
       <c r="D31" t="str">
-        <v>24871</v>
+        <v>52174</v>
       </c>
       <c r="E31" t="str">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F31" t="str">
-        <v>497047</v>
+        <v>931117</v>
       </c>
       <c r="G31" t="str">
         <v>1840</v>
       </c>
       <c r="H31" t="str">
-        <v>A3APUR30RZX4</v>
+        <v>94SU2L3D10FL</v>
       </c>
       <c r="I31" t="str">
-        <v>40000</v>
+        <v>47400</v>
       </c>
       <c r="J31" t="str">
-        <v>1943</v>
+        <v>2590</v>
       </c>
       <c r="K31" t="str">
-        <v>1150478</v>
+        <v>1420768</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>灵均嘻嘻</v>
+        <v>王大官人</v>
       </c>
       <c r="B32" t="str">
-        <v>10713</v>
+        <v>27956</v>
       </c>
       <c r="C32" t="str">
-        <v>4921574</v>
+        <v>6368002</v>
       </c>
       <c r="D32" t="str">
-        <v>30364</v>
+        <v>76225</v>
       </c>
       <c r="E32" t="str">
-        <v>494</v>
+        <v>571</v>
       </c>
       <c r="F32" t="str">
-        <v>558266</v>
+        <v>1510710</v>
       </c>
       <c r="G32" t="str">
         <v>1840</v>
       </c>
       <c r="H32" t="str">
-        <v>9SDDXP5N0K6D</v>
+        <v>9RP9FA3ZH8EM</v>
       </c>
       <c r="I32" t="str">
-        <v>44550</v>
+        <v>46970</v>
       </c>
       <c r="J32" t="str">
-        <v>1761</v>
+        <v>2020</v>
       </c>
       <c r="K32" t="str">
-        <v>1055179</v>
+        <v>1415400</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Sloth911</v>
+        <v>姜卓林</v>
       </c>
       <c r="B33" t="str">
-        <v>3325</v>
+        <v>15930</v>
       </c>
       <c r="C33" t="str">
-        <v>4915514</v>
+        <v>6325918</v>
       </c>
       <c r="D33" t="str">
-        <v>34664</v>
+        <v>50152</v>
       </c>
       <c r="E33" t="str">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="F33" t="str">
-        <v>688450</v>
+        <v>961308</v>
       </c>
       <c r="G33" t="str">
         <v>1840</v>
       </c>
       <c r="H33" t="str">
-        <v>9SWQ6N4ER9RF</v>
+        <v>97WH5G5MLZ7C</v>
       </c>
       <c r="I33" t="str">
-        <v>44270</v>
+        <v>47290</v>
       </c>
       <c r="J33" t="str">
-        <v>1623</v>
+        <v>1532</v>
       </c>
       <c r="K33" t="str">
-        <v>1133952</v>
+        <v>1983061</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>琴棋书画</v>
+        <v>i梦de优</v>
       </c>
       <c r="B34" t="str">
-        <v>4191</v>
+        <v>1980</v>
       </c>
       <c r="C34" t="str">
-        <v>4914997</v>
+        <v>6322625</v>
       </c>
       <c r="D34" t="str">
-        <v>26690</v>
+        <v>62015</v>
       </c>
       <c r="E34" t="str">
-        <v>473</v>
+        <v>660</v>
       </c>
       <c r="F34" t="str">
-        <v>513223</v>
+        <v>1195798</v>
       </c>
       <c r="G34" t="str">
         <v>1840</v>
       </c>
       <c r="H34" t="str">
-        <v>967S8F4XK4GR</v>
+        <v>95ERPT4T06D9</v>
       </c>
       <c r="I34" t="str">
-        <v>43220</v>
+        <v>47300</v>
       </c>
       <c r="J34" t="str">
-        <v>1934</v>
+        <v>2120</v>
       </c>
       <c r="K34" t="str">
-        <v>1035436</v>
+        <v>1461592</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>王子欧巴</v>
+        <v>灬字母灬</v>
       </c>
       <c r="B35" t="str">
-        <v>29445</v>
+        <v>8821</v>
       </c>
       <c r="C35" t="str">
-        <v>4895176</v>
+        <v>6318938</v>
       </c>
       <c r="D35" t="str">
-        <v>16407</v>
+        <v>40192</v>
       </c>
       <c r="E35" t="str">
-        <v>488</v>
+        <v>386</v>
       </c>
       <c r="F35" t="str">
-        <v>334806</v>
+        <v>808091</v>
       </c>
       <c r="G35" t="str">
         <v>1840</v>
       </c>
       <c r="H35" t="str">
-        <v>95P69J4Z87KN</v>
+        <v>9K39PN2XCHT4</v>
       </c>
       <c r="I35" t="str">
-        <v>43890</v>
+        <v>47450</v>
       </c>
       <c r="J35" t="str">
-        <v>1852</v>
+        <v>2445</v>
       </c>
       <c r="K35" t="str">
-        <v>1023347</v>
+        <v>1681161</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>木一就�</v>
+        <v>纳豆豆</v>
       </c>
       <c r="B36" t="str">
-        <v>20007</v>
+        <v>7904</v>
       </c>
       <c r="C36" t="str">
-        <v>4888768</v>
+        <v>6291209</v>
       </c>
       <c r="D36" t="str">
-        <v>26865</v>
+        <v>69476</v>
       </c>
       <c r="E36" t="str">
-        <v>452</v>
+        <v>491</v>
       </c>
       <c r="F36" t="str">
-        <v>493066</v>
+        <v>1340133</v>
       </c>
       <c r="G36" t="str">
         <v>1840</v>
       </c>
       <c r="H36" t="str">
-        <v>99AM4D65HSW4</v>
+        <v>952SHH4908XH</v>
       </c>
       <c r="I36" t="str">
-        <v>44170</v>
+        <v>47640</v>
       </c>
       <c r="J36" t="str">
-        <v>1836</v>
+        <v>2010</v>
       </c>
       <c r="K36" t="str">
-        <v>1130591</v>
+        <v>1272088</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>323丶轻风</v>
+        <v>音之形</v>
       </c>
       <c r="B37" t="str">
-        <v>3537</v>
+        <v>853</v>
       </c>
       <c r="C37" t="str">
-        <v>4876055</v>
+        <v>6262520</v>
       </c>
       <c r="D37" t="str">
-        <v>25292</v>
+        <v>87324</v>
       </c>
       <c r="E37" t="str">
-        <v>-1</v>
+        <v>410</v>
       </c>
       <c r="F37" t="str">
-        <v>390188</v>
+        <v>1703087</v>
       </c>
       <c r="G37" t="str">
         <v>1840</v>
       </c>
       <c r="H37" t="str">
-        <v>98JWAH50JYRY</v>
+        <v>9GEUNE48JQEJ</v>
       </c>
       <c r="I37" t="str">
-        <v>44560</v>
+        <v>47210</v>
       </c>
       <c r="J37" t="str">
-        <v>1694</v>
+        <v>2070</v>
       </c>
       <c r="K37" t="str">
-        <v>1008296</v>
+        <v>1151175</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>阿風</v>
+        <v>七月丶丶</v>
       </c>
       <c r="B38" t="str">
-        <v>11042</v>
+        <v>35080</v>
       </c>
       <c r="C38" t="str">
-        <v>4801058</v>
+        <v>6220602</v>
       </c>
       <c r="D38" t="str">
-        <v>19602</v>
+        <v>71630</v>
       </c>
       <c r="E38" t="str">
-        <v>367</v>
+        <v>623</v>
       </c>
       <c r="F38" t="str">
-        <v>351848</v>
+        <v>1253885</v>
       </c>
       <c r="G38" t="str">
         <v>1840</v>
       </c>
       <c r="H38" t="str">
-        <v>96T3KP4H480E</v>
+        <v>9FT0R23JH0ZH</v>
       </c>
       <c r="I38" t="str">
-        <v>45130</v>
+        <v>47670</v>
       </c>
       <c r="J38" t="str">
-        <v>1641</v>
+        <v>2130</v>
       </c>
       <c r="K38" t="str">
-        <v>1058871</v>
+        <v>1259533</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>肥皂掉地上</v>
+        <v>天天就天</v>
       </c>
       <c r="B39" t="str">
-        <v>7594</v>
+        <v>26293</v>
       </c>
       <c r="C39" t="str">
-        <v>4737283</v>
+        <v>6216385</v>
       </c>
       <c r="D39" t="str">
-        <v>20752</v>
+        <v>49356</v>
       </c>
       <c r="E39" t="str">
-        <v>463</v>
+        <v>358</v>
       </c>
       <c r="F39" t="str">
-        <v>381909</v>
+        <v>892290</v>
       </c>
       <c r="G39" t="str">
-        <v>1680</v>
+        <v>1840</v>
       </c>
       <c r="H39" t="str">
-        <v>9TCPU35P83E8</v>
+        <v>97N2P25HLHDA</v>
       </c>
       <c r="I39" t="str">
-        <v>44450</v>
+        <v>46330</v>
       </c>
       <c r="J39" t="str">
-        <v>1879</v>
+        <v>2122</v>
       </c>
       <c r="K39" t="str">
-        <v>1109204</v>
+        <v>1369306</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Mr•皓玥</v>
+        <v>大头胖猫</v>
       </c>
       <c r="B40" t="str">
-        <v>33699</v>
+        <v>32886</v>
       </c>
       <c r="C40" t="str">
-        <v>4730408</v>
+        <v>6210528</v>
       </c>
       <c r="D40" t="str">
-        <v>21566</v>
+        <v>77269</v>
       </c>
       <c r="E40" t="str">
-        <v>484</v>
+        <v>429</v>
       </c>
       <c r="F40" t="str">
-        <v>412291</v>
+        <v>1329853</v>
       </c>
       <c r="G40" t="str">
         <v>1840</v>
       </c>
       <c r="H40" t="str">
-        <v>A3TGRK5N0XGK</v>
+        <v>94P2T33THAWP</v>
       </c>
       <c r="I40" t="str">
-        <v>43880</v>
+        <v>46950</v>
       </c>
       <c r="J40" t="str">
-        <v>1771</v>
+        <v>2008</v>
       </c>
       <c r="K40" t="str">
-        <v>1079949</v>
+        <v>1421362</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>冷寂尘</v>
+        <v>爱死寂寞</v>
       </c>
       <c r="B41" t="str">
-        <v>10081</v>
+        <v>13332</v>
       </c>
       <c r="C41" t="str">
-        <v>4717820</v>
+        <v>6209675</v>
       </c>
       <c r="D41" t="str">
-        <v>22880</v>
+        <v>44699</v>
       </c>
       <c r="E41" t="str">
-        <v>418</v>
+        <v>456</v>
       </c>
       <c r="F41" t="str">
-        <v>430986</v>
+        <v>893711</v>
       </c>
       <c r="G41" t="str">
         <v>1840</v>
       </c>
       <c r="H41" t="str">
-        <v>9RP0K15NH6WR</v>
+        <v>9FKJYA4JS0HN</v>
       </c>
       <c r="I41" t="str">
-        <v>43710</v>
+        <v>47520</v>
       </c>
       <c r="J41" t="str">
-        <v>1925</v>
+        <v>2278</v>
       </c>
       <c r="K41" t="str">
-        <v>1026276</v>
+        <v>1449226</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>清丫清补凉</v>
+        <v>雪松🦁</v>
       </c>
       <c r="B42" t="str">
-        <v>15369</v>
+        <v>818</v>
       </c>
       <c r="C42" t="str">
-        <v>4715335</v>
+        <v>6169820</v>
       </c>
       <c r="D42" t="str">
-        <v>24092</v>
+        <v>51451</v>
       </c>
       <c r="E42" t="str">
-        <v>448</v>
+        <v>514</v>
       </c>
       <c r="F42" t="str">
-        <v>439894</v>
+        <v>988993</v>
       </c>
       <c r="G42" t="str">
         <v>1840</v>
       </c>
       <c r="H42" t="str">
-        <v>9RWUNX330Y7A</v>
+        <v>96QRPH2KMM7Y</v>
       </c>
       <c r="I42" t="str">
-        <v>44050</v>
+        <v>47340</v>
       </c>
       <c r="J42" t="str">
-        <v>1679</v>
+        <v>2213</v>
       </c>
       <c r="K42" t="str">
-        <v>1022901</v>
+        <v>1337698</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>头很硬123</v>
+        <v>卖表情的人</v>
       </c>
       <c r="B43" t="str">
-        <v>30381</v>
+        <v>3241</v>
       </c>
       <c r="C43" t="str">
-        <v>4712022</v>
+        <v>6145555</v>
       </c>
       <c r="D43" t="str">
-        <v>29188</v>
+        <v>50197</v>
       </c>
       <c r="E43" t="str">
-        <v>554</v>
+        <v>-1</v>
       </c>
       <c r="F43" t="str">
-        <v>483719</v>
+        <v>980093</v>
       </c>
       <c r="G43" t="str">
-        <v>1796</v>
+        <v>1840</v>
       </c>
       <c r="H43" t="str">
-        <v>9DKM8851H7S4</v>
+        <v>9S6TNK5MR384</v>
       </c>
       <c r="I43" t="str">
-        <v>43460</v>
+        <v>47740</v>
       </c>
       <c r="J43" t="str">
-        <v>1904</v>
+        <v>2201</v>
       </c>
       <c r="K43" t="str">
-        <v>928581</v>
+        <v>1315504</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>疯狂大野猪</v>
+        <v>海天一酾</v>
       </c>
       <c r="B44" t="str">
-        <v>11724</v>
+        <v>7679</v>
       </c>
       <c r="C44" t="str">
-        <v>4694597</v>
+        <v>6125092</v>
       </c>
       <c r="D44" t="str">
-        <v>24780</v>
+        <v>45760</v>
       </c>
       <c r="E44" t="str">
-        <v>193</v>
+        <v>440</v>
       </c>
       <c r="F44" t="str">
-        <v>446419</v>
+        <v>829226</v>
       </c>
       <c r="G44" t="str">
-        <v>1760</v>
+        <v>1840</v>
       </c>
       <c r="H44" t="str">
-        <v>94FNNF2WR48P</v>
+        <v>9E18Y12TSK5S</v>
       </c>
       <c r="I44" t="str">
-        <v>43520</v>
+        <v>47500</v>
       </c>
       <c r="J44" t="str">
-        <v>1850</v>
+        <v>1893</v>
       </c>
       <c r="K44" t="str">
-        <v>1171137</v>
+        <v>1507060</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>萝莉要臣死</v>
+        <v>小甜甜圈</v>
       </c>
       <c r="B45" t="str">
-        <v>19538</v>
+        <v>1941</v>
       </c>
       <c r="C45" t="str">
-        <v>4665521</v>
+        <v>6121380</v>
       </c>
       <c r="D45" t="str">
-        <v>28791</v>
+        <v>51863</v>
       </c>
       <c r="E45" t="str">
-        <v>525</v>
+        <v>448</v>
       </c>
       <c r="F45" t="str">
-        <v>502556</v>
+        <v>1011805</v>
       </c>
       <c r="G45" t="str">
         <v>1840</v>
       </c>
       <c r="H45" t="str">
-        <v>9KJW1N3UT841</v>
+        <v>94SRZA3CS082</v>
       </c>
       <c r="I45" t="str">
-        <v>44600</v>
+        <v>47690</v>
       </c>
       <c r="J45" t="str">
-        <v>1563</v>
+        <v>1834</v>
       </c>
       <c r="K45" t="str">
-        <v>998075</v>
+        <v>1503010</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>兰大大。</v>
+        <v>午后狂税</v>
       </c>
       <c r="B46" t="str">
-        <v>27247</v>
+        <v>6820</v>
       </c>
       <c r="C46" t="str">
-        <v>4664387</v>
+        <v>6080191</v>
       </c>
       <c r="D46" t="str">
-        <v>27808</v>
+        <v>43893</v>
       </c>
       <c r="E46" t="str">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="F46" t="str">
-        <v>500118</v>
+        <v>892553</v>
       </c>
       <c r="G46" t="str">
         <v>1840</v>
       </c>
       <c r="H46" t="str">
-        <v>97XYQG5004Y6</v>
+        <v>A386J3350RCF</v>
       </c>
       <c r="I46" t="str">
-        <v>44340</v>
+        <v>47300</v>
       </c>
       <c r="J46" t="str">
-        <v>1701</v>
+        <v>2419</v>
       </c>
       <c r="K46" t="str">
-        <v>1141197</v>
+        <v>1169295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>皮皮桃</v>
+        <v>你敢不敢嘛</v>
       </c>
       <c r="B47" t="str">
-        <v>14042</v>
+        <v>9356</v>
       </c>
       <c r="C47" t="str">
-        <v>4661441</v>
+        <v>6078226</v>
       </c>
       <c r="D47" t="str">
-        <v>37877</v>
+        <v>60621</v>
       </c>
       <c r="E47" t="str">
-        <v>457</v>
+        <v>752</v>
       </c>
       <c r="F47" t="str">
-        <v>714981</v>
+        <v>1207006</v>
       </c>
       <c r="G47" t="str">
-        <v>1830</v>
+        <v>1840</v>
       </c>
       <c r="H47" t="str">
-        <v>9SQEPT389LTP</v>
+        <v>9W05G72UJMGQ</v>
       </c>
       <c r="I47" t="str">
-        <v>41990</v>
+        <v>47040</v>
       </c>
       <c r="J47" t="str">
-        <v>1582</v>
+        <v>1886</v>
       </c>
       <c r="K47" t="str">
-        <v>996198</v>
+        <v>1451494</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>希缇泽泽泽</v>
+        <v>浪花朵朵开</v>
       </c>
       <c r="B48" t="str">
-        <v>37906</v>
+        <v>16580</v>
       </c>
       <c r="C48" t="str">
-        <v>4644449</v>
+        <v>6077265</v>
       </c>
       <c r="D48" t="str">
-        <v>36332</v>
+        <v>71351</v>
       </c>
       <c r="E48" t="str">
-        <v>445</v>
+        <v>606</v>
       </c>
       <c r="F48" t="str">
-        <v>671210</v>
+        <v>1451461</v>
       </c>
       <c r="G48" t="str">
-        <v>1774</v>
+        <v>1840</v>
       </c>
       <c r="H48" t="str">
-        <v>9GA1A256SEA8</v>
+        <v>95370T3RSQLS</v>
       </c>
       <c r="I48" t="str">
-        <v>43720</v>
+        <v>46450</v>
       </c>
       <c r="J48" t="str">
-        <v>1636</v>
+        <v>1877</v>
       </c>
       <c r="K48" t="str">
-        <v>723010</v>
+        <v>1140267</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>对方正在飘</v>
+        <v>惑</v>
       </c>
       <c r="B49" t="str">
-        <v>28011</v>
+        <v>162</v>
       </c>
       <c r="C49" t="str">
-        <v>4638008</v>
+        <v>6059431</v>
       </c>
       <c r="D49" t="str">
-        <v>22492</v>
+        <v>43298</v>
       </c>
       <c r="E49" t="str">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F49" t="str">
-        <v>435431</v>
+        <v>838632</v>
       </c>
       <c r="G49" t="str">
         <v>1840</v>
       </c>
       <c r="H49" t="str">
-        <v>9YZGPR3J03ZG</v>
+        <v>95YL45588LTX</v>
       </c>
       <c r="I49" t="str">
-        <v>42830</v>
+        <v>47220</v>
       </c>
       <c r="J49" t="str">
-        <v>1645</v>
+        <v>2424</v>
       </c>
       <c r="K49" t="str">
-        <v>1055404</v>
+        <v>1234536</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>海蒂་</v>
+        <v>Lazy Aeron</v>
       </c>
       <c r="B50" t="str">
-        <v>22624</v>
+        <v>22867</v>
       </c>
       <c r="C50" t="str">
-        <v>4636809</v>
+        <v>6048772</v>
       </c>
       <c r="D50" t="str">
-        <v>19499</v>
+        <v>46915</v>
       </c>
       <c r="E50" t="str">
-        <v>-1</v>
+        <v>400</v>
       </c>
       <c r="F50" t="str">
-        <v>340718</v>
+        <v>913325</v>
       </c>
       <c r="G50" t="str">
-        <v>1683</v>
+        <v>1840</v>
       </c>
       <c r="H50" t="str">
-        <v>9LF0N92K83G7</v>
+        <v>98R3KL4Q2T7H</v>
       </c>
       <c r="I50" t="str">
-        <v>43440</v>
+        <v>47150</v>
       </c>
       <c r="J50" t="str">
-        <v>1817</v>
+        <v>2202</v>
       </c>
       <c r="K50" t="str">
-        <v>1003421</v>
+        <v>1204905</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>BADwoman</v>
+        <v>抚台大人</v>
       </c>
       <c r="B51" t="str">
-        <v>355</v>
+        <v>40128</v>
       </c>
       <c r="C51" t="str">
-        <v>4623272</v>
+        <v>6043309</v>
       </c>
       <c r="D51" t="str">
-        <v>36378</v>
+        <v>54279</v>
       </c>
       <c r="E51" t="str">
-        <v>500</v>
+        <v>935</v>
       </c>
       <c r="F51" t="str">
-        <v>584927</v>
+        <v>1055192</v>
       </c>
       <c r="G51" t="str">
-        <v>1822</v>
+        <v>1840</v>
       </c>
       <c r="H51" t="str">
-        <v>98DSMC4J9E64</v>
+        <v>991F2C638EM4</v>
       </c>
       <c r="I51" t="str">
-        <v>42610</v>
+        <v>47140</v>
       </c>
       <c r="J51" t="str">
-        <v>1544</v>
+        <v>1777</v>
       </c>
       <c r="K51" t="str">
-        <v>900780</v>
+        <v>1661113</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>水千山</v>
+        <v>此间骚年</v>
       </c>
       <c r="B52" t="str">
-        <v>13438</v>
+        <v>1021</v>
       </c>
       <c r="C52" t="str">
-        <v>4608002</v>
+        <v>6031077</v>
       </c>
       <c r="D52" t="str">
-        <v>23630</v>
+        <v>52233</v>
       </c>
       <c r="E52" t="str">
-        <v>264</v>
+        <v>518</v>
       </c>
       <c r="F52" t="str">
-        <v>437946</v>
+        <v>1088743</v>
       </c>
       <c r="G52" t="str">
         <v>1840</v>
       </c>
       <c r="H52" t="str">
-        <v>98T8AD6607A0</v>
+        <v>97GMRF4H6LLF</v>
       </c>
       <c r="I52" t="str">
-        <v>44170</v>
+        <v>47580</v>
       </c>
       <c r="J52" t="str">
-        <v>1810</v>
+        <v>1833</v>
       </c>
       <c r="K52" t="str">
-        <v>1010361</v>
+        <v>1474053</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>海南小旋风</v>
+        <v>天意无痕</v>
       </c>
       <c r="B53" t="str">
-        <v>23871</v>
+        <v>3966</v>
       </c>
       <c r="C53" t="str">
-        <v>4606049</v>
+        <v>6027721</v>
       </c>
       <c r="D53" t="str">
-        <v>22424</v>
+        <v>42282</v>
       </c>
       <c r="E53" t="str">
-        <v>443</v>
+        <v>381</v>
       </c>
       <c r="F53" t="str">
-        <v>463253</v>
+        <v>807798</v>
       </c>
       <c r="G53" t="str">
         <v>1840</v>
       </c>
       <c r="H53" t="str">
-        <v>9KMDF842APKN</v>
+        <v>9K4S882SULA3</v>
       </c>
       <c r="I53" t="str">
-        <v>44620</v>
+        <v>47180</v>
       </c>
       <c r="J53" t="str">
-        <v>1547</v>
+        <v>2121</v>
       </c>
       <c r="K53" t="str">
-        <v>1069041</v>
+        <v>1688181</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>兔宗玉</v>
+        <v>谁敢有我坑</v>
       </c>
       <c r="B54" t="str">
-        <v>6199</v>
+        <v>19278</v>
       </c>
       <c r="C54" t="str">
-        <v>4580334</v>
+        <v>5990938</v>
       </c>
       <c r="D54" t="str">
-        <v>22637</v>
+        <v>34117</v>
       </c>
       <c r="E54" t="str">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="F54" t="str">
-        <v>419963</v>
+        <v>663732</v>
       </c>
       <c r="G54" t="str">
         <v>1840</v>
       </c>
       <c r="H54" t="str">
-        <v>9RX0MU5YRUA3</v>
+        <v>9UD60Y311FJ5</v>
       </c>
       <c r="I54" t="str">
-        <v>44900</v>
+        <v>47600</v>
       </c>
       <c r="J54" t="str">
-        <v>1752</v>
+        <v>2253</v>
       </c>
       <c r="K54" t="str">
-        <v>1055069</v>
+        <v>1514026</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>张璐璐🌟</v>
+        <v>梦🍀四叶草</v>
       </c>
       <c r="B55" t="str">
-        <v>35678</v>
+        <v>993</v>
       </c>
       <c r="C55" t="str">
-        <v>4571361</v>
+        <v>5984974</v>
       </c>
       <c r="D55" t="str">
-        <v>27763</v>
+        <v>55016</v>
       </c>
       <c r="E55" t="str">
-        <v>528</v>
+        <v>445</v>
       </c>
       <c r="F55" t="str">
-        <v>539099</v>
+        <v>1078962</v>
       </c>
       <c r="G55" t="str">
         <v>1840</v>
       </c>
       <c r="H55" t="str">
-        <v>97Z4LG3Z8AET</v>
+        <v>9EUE1F4HRL0A</v>
       </c>
       <c r="I55" t="str">
-        <v>43740</v>
+        <v>47540</v>
       </c>
       <c r="J55" t="str">
-        <v>1762</v>
+        <v>1890</v>
       </c>
       <c r="K55" t="str">
-        <v>947148</v>
+        <v>1380064</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>冰冷的馒头</v>
+        <v>五载</v>
       </c>
       <c r="B56" t="str">
-        <v>10572</v>
+        <v>14924</v>
       </c>
       <c r="C56" t="str">
-        <v>4534647</v>
+        <v>5950610</v>
       </c>
       <c r="D56" t="str">
-        <v>20937</v>
+        <v>46353</v>
       </c>
       <c r="E56" t="str">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F56" t="str">
-        <v>342392</v>
+        <v>882984</v>
       </c>
       <c r="G56" t="str">
         <v>1840</v>
       </c>
       <c r="H56" t="str">
-        <v>9E4EW45Y092L</v>
+        <v>9FSAKP47SHJH</v>
       </c>
       <c r="I56" t="str">
-        <v>44150</v>
+        <v>47340</v>
       </c>
       <c r="J56" t="str">
-        <v>1501</v>
+        <v>2331</v>
       </c>
       <c r="K56" t="str">
-        <v>876384</v>
+        <v>1177743</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>爱新觉罗DJQ</v>
+        <v>悲鸣之眼</v>
       </c>
       <c r="B57" t="str">
-        <v>5073</v>
+        <v>420</v>
       </c>
       <c r="C57" t="str">
-        <v>4527300</v>
+        <v>5890107</v>
       </c>
       <c r="D57" t="str">
-        <v>24406</v>
+        <v>47456</v>
       </c>
       <c r="E57" t="str">
-        <v>-1</v>
+        <v>332</v>
       </c>
       <c r="F57" t="str">
-        <v>408965</v>
+        <v>910182</v>
       </c>
       <c r="G57" t="str">
         <v>1840</v>
       </c>
       <c r="H57" t="str">
-        <v>9LNKH53K0X4L</v>
+        <v>9E66P866RFZK</v>
       </c>
       <c r="I57" t="str">
-        <v>44230</v>
+        <v>47620</v>
       </c>
       <c r="J57" t="str">
-        <v>1457</v>
+        <v>2019</v>
       </c>
       <c r="K57" t="str">
-        <v>1023015</v>
+        <v>1264845</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Luffy Lo</v>
+        <v>繁华褪尽</v>
       </c>
       <c r="B58" t="str">
-        <v>1013</v>
+        <v>13166</v>
       </c>
       <c r="C58" t="str">
-        <v>4518077</v>
+        <v>5858282</v>
       </c>
       <c r="D58" t="str">
-        <v>24213</v>
+        <v>46943</v>
       </c>
       <c r="E58" t="str">
-        <v>467</v>
+        <v>368</v>
       </c>
       <c r="F58" t="str">
-        <v>399923</v>
+        <v>919539</v>
       </c>
       <c r="G58" t="str">
         <v>1840</v>
       </c>
       <c r="H58" t="str">
-        <v>9P6MTX4NJG8J</v>
+        <v>95X68U56HEXN</v>
       </c>
       <c r="I58" t="str">
-        <v>44310</v>
+        <v>47390</v>
       </c>
       <c r="J58" t="str">
-        <v>1773</v>
+        <v>2066</v>
       </c>
       <c r="K58" t="str">
-        <v>937017</v>
+        <v>1269692</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>han.晓旭</v>
+        <v>无限升级</v>
       </c>
       <c r="B59" t="str">
-        <v>796</v>
+        <v>27270</v>
       </c>
       <c r="C59" t="str">
-        <v>4515274</v>
+        <v>5834740</v>
       </c>
       <c r="D59" t="str">
-        <v>28255</v>
+        <v>46947</v>
       </c>
       <c r="E59" t="str">
-        <v>431</v>
+        <v>356</v>
       </c>
       <c r="F59" t="str">
-        <v>465343</v>
+        <v>870803</v>
       </c>
       <c r="G59" t="str">
-        <v>1805</v>
+        <v>1840</v>
       </c>
       <c r="H59" t="str">
-        <v>9JQA3Y2NRDMG</v>
+        <v>9G77TG4JJ5HW</v>
       </c>
       <c r="I59" t="str">
-        <v>40000</v>
+        <v>45930</v>
       </c>
       <c r="J59" t="str">
-        <v>1656</v>
+        <v>1763</v>
       </c>
       <c r="K59" t="str">
-        <v>903744</v>
+        <v>1321206</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>emmm八千</v>
+        <v>宵月夜色</v>
       </c>
       <c r="B60" t="str">
-        <v>16787</v>
+        <v>1134</v>
       </c>
       <c r="C60" t="str">
-        <v>4512440</v>
+        <v>5828126</v>
       </c>
       <c r="D60" t="str">
-        <v>23651</v>
+        <v>47922</v>
       </c>
       <c r="E60" t="str">
-        <v>498</v>
+        <v>359</v>
       </c>
       <c r="F60" t="str">
-        <v>443311</v>
+        <v>936818</v>
       </c>
       <c r="G60" t="str">
         <v>1840</v>
       </c>
       <c r="H60" t="str">
-        <v>952PJC46896G</v>
+        <v>95LKSW5000TK</v>
       </c>
       <c r="I60" t="str">
-        <v>44210</v>
+        <v>47470</v>
       </c>
       <c r="J60" t="str">
-        <v>1676</v>
+        <v>1732</v>
       </c>
       <c r="K60" t="str">
-        <v>1032220</v>
+        <v>1314341</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>傻康康</v>
+        <v>巨蟹的倔强</v>
       </c>
       <c r="B61" t="str">
-        <v>20784</v>
+        <v>7219</v>
       </c>
       <c r="C61" t="str">
-        <v>4506974</v>
+        <v>5818328</v>
       </c>
       <c r="D61" t="str">
-        <v>30301</v>
+        <v>35636</v>
       </c>
       <c r="E61" t="str">
-        <v>1081</v>
+        <v>350</v>
       </c>
       <c r="F61" t="str">
-        <v>519600</v>
+        <v>652630</v>
       </c>
       <c r="G61" t="str">
-        <v>1760</v>
+        <v>1685</v>
       </c>
       <c r="H61" t="str">
-        <v>9F2WWP4GJ77A</v>
+        <v>9F0TRF62SGPJ</v>
       </c>
       <c r="I61" t="str">
-        <v>43025</v>
+        <v>47490</v>
       </c>
       <c r="J61" t="str">
-        <v>1738</v>
+        <v>1913</v>
       </c>
       <c r="K61" t="str">
-        <v>871638</v>
+        <v>1585025</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>嘿嘿咦嘿嘿</v>
+        <v>rainss17</v>
       </c>
       <c r="B62" t="str">
-        <v>21833</v>
+        <v>304</v>
       </c>
       <c r="C62" t="str">
-        <v>4499523</v>
+        <v>5800020</v>
       </c>
       <c r="D62" t="str">
-        <v>25193</v>
+        <v>53235</v>
       </c>
       <c r="E62" t="str">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="F62" t="str">
-        <v>458180</v>
+        <v>1100547</v>
       </c>
       <c r="G62" t="str">
-        <v>1786</v>
+        <v>1840</v>
       </c>
       <c r="H62" t="str">
-        <v>9UT9KR48S1UQ</v>
+        <v>958KZT3T2AES</v>
       </c>
       <c r="I62" t="str">
-        <v>43870</v>
+        <v>47630</v>
       </c>
       <c r="J62" t="str">
-        <v>1726</v>
+        <v>1788</v>
       </c>
       <c r="K62" t="str">
-        <v>926745</v>
+        <v>1156803</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>完毕鬼爪</v>
+        <v>奕朵</v>
       </c>
       <c r="B63" t="str">
-        <v>45819</v>
+        <v>23524</v>
       </c>
       <c r="C63" t="str">
-        <v>4453722</v>
+        <v>5791967</v>
       </c>
       <c r="D63" t="str">
-        <v>20543</v>
+        <v>46748</v>
       </c>
       <c r="E63" t="str">
-        <v>684</v>
+        <v>353</v>
       </c>
       <c r="F63" t="str">
-        <v>429187</v>
+        <v>865322</v>
       </c>
       <c r="G63" t="str">
         <v>1840</v>
       </c>
       <c r="H63" t="str">
-        <v>9Y364K468WWU</v>
+        <v>95RPXF3JHQQD</v>
       </c>
       <c r="I63" t="str">
-        <v>44180</v>
+        <v>47140</v>
       </c>
       <c r="J63" t="str">
-        <v>1763</v>
+        <v>2068</v>
       </c>
       <c r="K63" t="str">
-        <v>1067183</v>
+        <v>1172276</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>小丸子呀</v>
+        <v>韵慈</v>
       </c>
       <c r="B64" t="str">
-        <v>4391</v>
+        <v>6826</v>
       </c>
       <c r="C64" t="str">
-        <v>4387309</v>
+        <v>5789613</v>
       </c>
       <c r="D64" t="str">
-        <v>19185</v>
+        <v>52737</v>
       </c>
       <c r="E64" t="str">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="F64" t="str">
-        <v>362683</v>
+        <v>1043086</v>
       </c>
       <c r="G64" t="str">
         <v>1840</v>
       </c>
       <c r="H64" t="str">
-        <v>9SL2KD2T16J1</v>
+        <v>9DD48065STQS</v>
       </c>
       <c r="I64" t="str">
-        <v>44280</v>
+        <v>47240</v>
       </c>
       <c r="J64" t="str">
-        <v>1699</v>
+        <v>1926</v>
       </c>
       <c r="K64" t="str">
-        <v>939150</v>
+        <v>1279605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>且待我</v>
+        <v>小白酱gogo</v>
       </c>
       <c r="B65" t="str">
-        <v>42171</v>
+        <v>12727</v>
       </c>
       <c r="C65" t="str">
-        <v>4387306</v>
+        <v>5717416</v>
       </c>
       <c r="D65" t="str">
-        <v>20395</v>
+        <v>52402</v>
       </c>
       <c r="E65" t="str">
-        <v>522</v>
+        <v>417</v>
       </c>
       <c r="F65" t="str">
-        <v>364651</v>
+        <v>970132</v>
       </c>
       <c r="G65" t="str">
         <v>1840</v>
       </c>
       <c r="H65" t="str">
-        <v>9UNLGH5D0M16</v>
+        <v>98FXF2571MAE</v>
       </c>
       <c r="I65" t="str">
-        <v>44060</v>
+        <v>47060</v>
       </c>
       <c r="J65" t="str">
-        <v>1771</v>
+        <v>1663</v>
       </c>
       <c r="K65" t="str">
-        <v>954366</v>
+        <v>1459702</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>画生</v>
+        <v>犹太的极</v>
       </c>
       <c r="B66" t="str">
-        <v>29344</v>
+        <v>30847</v>
       </c>
       <c r="C66" t="str">
-        <v>4343108</v>
+        <v>5712832</v>
       </c>
       <c r="D66" t="str">
-        <v>19403</v>
+        <v>53666</v>
       </c>
       <c r="E66" t="str">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="F66" t="str">
-        <v>359516</v>
+        <v>1065867</v>
       </c>
       <c r="G66" t="str">
-        <v>1768</v>
+        <v>1840</v>
       </c>
       <c r="H66" t="str">
-        <v>9J7SFZ56HM39</v>
+        <v>96QUA85D0MJ4</v>
       </c>
       <c r="I66" t="str">
-        <v>43090</v>
+        <v>47030</v>
       </c>
       <c r="J66" t="str">
-        <v>1795</v>
+        <v>2069</v>
       </c>
       <c r="K66" t="str">
-        <v>908898</v>
+        <v>1201987</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>辣么簸箕板</v>
+        <v>从此步隐身~</v>
       </c>
       <c r="B67" t="str">
-        <v>15687</v>
+        <v>27113</v>
       </c>
       <c r="C67" t="str">
-        <v>4305738</v>
+        <v>5707110</v>
       </c>
       <c r="D67" t="str">
-        <v>22185</v>
+        <v>52201</v>
       </c>
       <c r="E67" t="str">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="F67" t="str">
-        <v>385895</v>
+        <v>955252</v>
       </c>
       <c r="G67" t="str">
         <v>1840</v>
       </c>
       <c r="H67" t="str">
-        <v>9GYQP63S80GA</v>
+        <v>97FUJQ486E72</v>
       </c>
       <c r="I67" t="str">
-        <v>43250</v>
+        <v>45630</v>
       </c>
       <c r="J67" t="str">
-        <v>1625</v>
+        <v>2266</v>
       </c>
       <c r="K67" t="str">
-        <v>917492</v>
+        <v>1147647</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>larry骁</v>
+        <v>不知所遇</v>
       </c>
       <c r="B68" t="str">
-        <v>59533</v>
+        <v>1809</v>
       </c>
       <c r="C68" t="str">
-        <v>4285695</v>
+        <v>5686247</v>
       </c>
       <c r="D68" t="str">
-        <v>20876</v>
+        <v>45300</v>
       </c>
       <c r="E68" t="str">
-        <v>934</v>
+        <v>391</v>
       </c>
       <c r="F68" t="str">
-        <v>412581</v>
+        <v>854341</v>
       </c>
       <c r="G68" t="str">
         <v>1840</v>
       </c>
       <c r="H68" t="str">
-        <v>A3334P49R9EC</v>
+        <v>94MMJ7310L9H</v>
       </c>
       <c r="I68" t="str">
-        <v>44070</v>
+        <v>47580</v>
       </c>
       <c r="J68" t="str">
-        <v>1528</v>
+        <v>1800</v>
       </c>
       <c r="K68" t="str">
-        <v>905978</v>
+        <v>1361044</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>木木童鞋2号</v>
+        <v>文客来兮</v>
       </c>
       <c r="B69" t="str">
-        <v>31498</v>
+        <v>1032</v>
       </c>
       <c r="C69" t="str">
-        <v>4282548</v>
+        <v>5681120</v>
       </c>
       <c r="D69" t="str">
-        <v>16541</v>
+        <v>44858</v>
       </c>
       <c r="E69" t="str">
-        <v>461</v>
+        <v>388</v>
       </c>
       <c r="F69" t="str">
-        <v>277657</v>
+        <v>919845</v>
       </c>
       <c r="G69" t="str">
         <v>1840</v>
       </c>
       <c r="H69" t="str">
-        <v>96KM0J56ALZ5</v>
+        <v>9688573DKCGN</v>
       </c>
       <c r="I69" t="str">
-        <v>43590</v>
+        <v>47700</v>
       </c>
       <c r="J69" t="str">
-        <v>1502</v>
+        <v>1789</v>
       </c>
       <c r="K69" t="str">
-        <v>1015653</v>
+        <v>1230747</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>小胖子嘟嘟</v>
+        <v>潘总</v>
       </c>
       <c r="B70" t="str">
-        <v>7992</v>
+        <v>956</v>
       </c>
       <c r="C70" t="str">
-        <v>4231139</v>
+        <v>5675670</v>
       </c>
       <c r="D70" t="str">
-        <v>24164</v>
+        <v>45802</v>
       </c>
       <c r="E70" t="str">
-        <v>542</v>
+        <v>432</v>
       </c>
       <c r="F70" t="str">
-        <v>379282</v>
+        <v>938903</v>
       </c>
       <c r="G70" t="str">
         <v>1840</v>
       </c>
       <c r="H70" t="str">
-        <v>95LYK54Y01QK</v>
+        <v>982E7D3A8496</v>
       </c>
       <c r="I70" t="str">
-        <v>43415</v>
+        <v>47170</v>
       </c>
       <c r="J70" t="str">
-        <v>1528</v>
+        <v>1801</v>
       </c>
       <c r="K70" t="str">
-        <v>876174</v>
+        <v>1137675</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>湛蓝史莱姆</v>
+        <v>Amiens</v>
       </c>
       <c r="B71" t="str">
-        <v>29762</v>
+        <v>11010</v>
       </c>
       <c r="C71" t="str">
-        <v>4202925</v>
+        <v>5635217</v>
       </c>
       <c r="D71" t="str">
-        <v>21243</v>
+        <v>38345</v>
       </c>
       <c r="E71" t="str">
-        <v>588</v>
+        <v>460</v>
       </c>
       <c r="F71" t="str">
-        <v>342879</v>
+        <v>753422</v>
       </c>
       <c r="G71" t="str">
         <v>1840</v>
       </c>
       <c r="H71" t="str">
-        <v>96ZM1Z5NHHKW</v>
+        <v>9KL5ZR4JAAZQ</v>
       </c>
       <c r="I71" t="str">
-        <v>43340</v>
+        <v>47020</v>
       </c>
       <c r="J71" t="str">
-        <v>1519</v>
+        <v>2279</v>
       </c>
       <c r="K71" t="str">
-        <v>948928</v>
+        <v>1090389</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Giratina01</v>
+        <v>哥厉害了</v>
       </c>
       <c r="B72" t="str">
-        <v>59831</v>
+        <v>27230</v>
       </c>
       <c r="C72" t="str">
-        <v>4201749</v>
+        <v>5563333</v>
       </c>
       <c r="D72" t="str">
-        <v>24446</v>
+        <v>41688</v>
       </c>
       <c r="E72" t="str">
-        <v>711</v>
+        <v>377</v>
       </c>
       <c r="F72" t="str">
-        <v>476003</v>
+        <v>826895</v>
       </c>
       <c r="G72" t="str">
+        <v>1840</v>
+      </c>
+      <c r="H72" t="str">
+        <v>95E76D4QR450</v>
+      </c>
+      <c r="I72" t="str">
+        <v>47440</v>
+      </c>
+      <c r="J72" t="str">
         <v>1828</v>
       </c>
-      <c r="H72" t="str">
-        <v>A9CCE934H2CG</v>
-      </c>
-      <c r="I72" t="str">
-        <v>44690</v>
-      </c>
-      <c r="J72" t="str">
-        <v>1482</v>
-      </c>
       <c r="K72" t="str">
-        <v>810915</v>
+        <v>1345323</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>醉莫離觴</v>
+        <v>破天撩日</v>
       </c>
       <c r="B73" t="str">
-        <v>62329</v>
+        <v>73370</v>
       </c>
       <c r="C73" t="str">
-        <v>4170487</v>
+        <v>5561208</v>
       </c>
       <c r="D73" t="str">
-        <v>25467</v>
+        <v>40195</v>
       </c>
       <c r="E73" t="str">
-        <v>1358</v>
+        <v>1653</v>
       </c>
       <c r="F73" t="str">
-        <v>519542</v>
+        <v>796897</v>
       </c>
       <c r="G73" t="str">
         <v>1840</v>
       </c>
       <c r="H73" t="str">
-        <v>A8RWL24ATK59</v>
+        <v>9ZAGG94AJ2DE</v>
       </c>
       <c r="I73" t="str">
-        <v>25635</v>
+        <v>47640</v>
       </c>
       <c r="J73" t="str">
-        <v>1702</v>
+        <v>1721</v>
       </c>
       <c r="K73" t="str">
-        <v>933810</v>
+        <v>1761661</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>天野</v>
+        <v>鸢宝</v>
       </c>
       <c r="B74" t="str">
-        <v>5465</v>
+        <v>50373</v>
       </c>
       <c r="C74" t="str">
-        <v>4166809</v>
+        <v>5560493</v>
       </c>
       <c r="D74" t="str">
-        <v>28670</v>
+        <v>44922</v>
       </c>
       <c r="E74" t="str">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="F74" t="str">
-        <v>506859</v>
+        <v>909757</v>
       </c>
       <c r="G74" t="str">
         <v>1840</v>
       </c>
       <c r="H74" t="str">
-        <v>94G70E3LR0JU</v>
+        <v>AAAYQ248J5LU</v>
       </c>
       <c r="I74" t="str">
-        <v>39730</v>
+        <v>47170</v>
       </c>
       <c r="J74" t="str">
-        <v>1481</v>
+        <v>1886</v>
       </c>
       <c r="K74" t="str">
-        <v>866783</v>
+        <v>1160391</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>丨O口O丨</v>
+        <v>丑八怪名模</v>
       </c>
       <c r="B75" t="str">
-        <v>67442</v>
+        <v>13797</v>
       </c>
       <c r="C75" t="str">
-        <v>4104370</v>
+        <v>5544660</v>
       </c>
       <c r="D75" t="str">
-        <v>22373</v>
+        <v>33673</v>
       </c>
       <c r="E75" t="str">
-        <v>458</v>
+        <v>355</v>
       </c>
       <c r="F75" t="str">
-        <v>429907</v>
+        <v>668746</v>
       </c>
       <c r="G75" t="str">
         <v>1840</v>
       </c>
       <c r="H75" t="str">
-        <v>AMRKUS3TJ461</v>
+        <v>96YC455QRE54</v>
       </c>
       <c r="I75" t="str">
-        <v>40475</v>
+        <v>45340</v>
       </c>
       <c r="J75" t="str">
-        <v>1528</v>
+        <v>2020</v>
       </c>
       <c r="K75" t="str">
-        <v>660354</v>
+        <v>1198790</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Kation</v>
+        <v>窗边聊着天</v>
       </c>
       <c r="B76" t="str">
-        <v>63598</v>
+        <v>2872</v>
       </c>
       <c r="C76" t="str">
-        <v>4091649</v>
+        <v>5512590</v>
       </c>
       <c r="D76" t="str">
-        <v>21907</v>
+        <v>49307</v>
       </c>
       <c r="E76" t="str">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="F76" t="str">
-        <v>418176</v>
+        <v>895002</v>
       </c>
       <c r="G76" t="str">
-        <v>1748</v>
+        <v>1840</v>
       </c>
       <c r="H76" t="str">
-        <v>9L1U7M33WRPM</v>
+        <v>9633FM31STE1</v>
       </c>
       <c r="I76" t="str">
-        <v>43400</v>
+        <v>46410</v>
       </c>
       <c r="J76" t="str">
-        <v>1582</v>
+        <v>1920</v>
       </c>
       <c r="K76" t="str">
-        <v>889818</v>
+        <v>1155383</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>-1</v>
+        <v>告白_气球</v>
       </c>
       <c r="B77" t="str">
-        <v>74066</v>
+        <v>12259</v>
       </c>
       <c r="C77" t="str">
-        <v>4049376</v>
+        <v>5509463</v>
       </c>
       <c r="D77" t="str">
-        <v>9955</v>
+        <v>45082</v>
       </c>
       <c r="E77" t="str">
-        <v>-1</v>
+        <v>508</v>
       </c>
       <c r="F77" t="str">
-        <v>169257</v>
+        <v>913023</v>
       </c>
       <c r="G77" t="str">
         <v>1840</v>
       </c>
       <c r="H77" t="str">
-        <v>9EL8SG5DSGZF</v>
+        <v>9NEDNF5UHQA6</v>
       </c>
       <c r="I77" t="str">
-        <v>44350</v>
+        <v>45510</v>
       </c>
       <c r="J77" t="str">
-        <v>1653</v>
+        <v>1888</v>
       </c>
       <c r="K77" t="str">
-        <v>1139619</v>
+        <v>1113915</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>有来有往</v>
+        <v>smallzw</v>
       </c>
       <c r="B78" t="str">
-        <v>20754</v>
+        <v>52492</v>
       </c>
       <c r="C78" t="str">
-        <v>4005618</v>
+        <v>5484326</v>
       </c>
       <c r="D78" t="str">
-        <v>18087</v>
+        <v>25484</v>
       </c>
       <c r="E78" t="str">
-        <v>482</v>
+        <v>407</v>
       </c>
       <c r="F78" t="str">
-        <v>263874</v>
+        <v>521812</v>
       </c>
       <c r="G78" t="str">
-        <v>1760</v>
+        <v>1840</v>
       </c>
       <c r="H78" t="str">
-        <v>9GGHU64PR350</v>
+        <v>A8S3DT3L2L9D</v>
       </c>
       <c r="I78" t="str">
-        <v>39565</v>
+        <v>47590</v>
       </c>
       <c r="J78" t="str">
-        <v>1413</v>
+        <v>1968</v>
       </c>
       <c r="K78" t="str">
-        <v>813055</v>
+        <v>1448704</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>不要ＴＴ</v>
+        <v>贼稳</v>
       </c>
       <c r="B79" t="str">
-        <v>52121</v>
+        <v>10101</v>
       </c>
       <c r="C79" t="str">
-        <v>3978321</v>
+        <v>5466740</v>
       </c>
       <c r="D79" t="str">
-        <v>16061</v>
+        <v>48509</v>
       </c>
       <c r="E79" t="str">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="F79" t="str">
-        <v>272178</v>
+        <v>1034523</v>
       </c>
       <c r="G79" t="str">
         <v>1840</v>
       </c>
       <c r="H79" t="str">
-        <v>A7MM6K5M03WZ</v>
+        <v>94HM0D3MH338</v>
       </c>
       <c r="I79" t="str">
-        <v>43255</v>
+        <v>40000</v>
       </c>
       <c r="J79" t="str">
-        <v>1417</v>
+        <v>1544</v>
       </c>
       <c r="K79" t="str">
-        <v>935331</v>
+        <v>1076986</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>飞翔的童年</v>
+        <v>咩呜</v>
       </c>
       <c r="B80" t="str">
-        <v>66816</v>
+        <v>13389</v>
       </c>
       <c r="C80" t="str">
-        <v>3925581</v>
+        <v>5431957</v>
       </c>
       <c r="D80" t="str">
-        <v>22823</v>
+        <v>40654</v>
       </c>
       <c r="E80" t="str">
-        <v>565</v>
+        <v>358</v>
       </c>
       <c r="F80" t="str">
-        <v>434297</v>
+        <v>726880</v>
       </c>
       <c r="G80" t="str">
-        <v>1828</v>
+        <v>1840</v>
       </c>
       <c r="H80" t="str">
-        <v>9AUHXD2Y0WUT</v>
+        <v>94PMGK3QREAH</v>
       </c>
       <c r="I80" t="str">
-        <v>41445</v>
+        <v>45700</v>
       </c>
       <c r="J80" t="str">
-        <v>1356</v>
+        <v>1915</v>
       </c>
       <c r="K80" t="str">
-        <v>809897</v>
+        <v>1099180</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>独孤幻梦</v>
+        <v>幻冰盟主</v>
       </c>
       <c r="B81" t="str">
-        <v>56567</v>
+        <v>28663</v>
       </c>
       <c r="C81" t="str">
-        <v>3910803</v>
+        <v>5430444</v>
       </c>
       <c r="D81" t="str">
-        <v>19684</v>
+        <v>47892</v>
       </c>
       <c r="E81" t="str">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="F81" t="str">
-        <v>357206</v>
+        <v>892096</v>
       </c>
       <c r="G81" t="str">
         <v>1840</v>
       </c>
       <c r="H81" t="str">
-        <v>A5UYXW4YH081</v>
+        <v>94F5T42K8220</v>
       </c>
       <c r="I81" t="str">
-        <v>43940</v>
+        <v>46550</v>
       </c>
       <c r="J81" t="str">
-        <v>1317</v>
+        <v>1893</v>
       </c>
       <c r="K81" t="str">
-        <v>807531</v>
+        <v>1171296</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Thefate</v>
+        <v>旧城半夏</v>
       </c>
       <c r="B82" t="str">
-        <v>67962</v>
+        <v>55539</v>
       </c>
       <c r="C82" t="str">
-        <v>3880223</v>
+        <v>5426653</v>
       </c>
       <c r="D82" t="str">
-        <v>16881</v>
+        <v>34089</v>
       </c>
       <c r="E82" t="str">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="F82" t="str">
-        <v>306120</v>
+        <v>695686</v>
       </c>
       <c r="G82" t="str">
         <v>1840</v>
       </c>
       <c r="H82" t="str">
-        <v>9A4P8A4KHP8C</v>
+        <v>AE0E6K39HKMA</v>
       </c>
       <c r="I82" t="str">
-        <v>42455</v>
+        <v>47360</v>
       </c>
       <c r="J82" t="str">
-        <v>1507</v>
+        <v>1909</v>
       </c>
       <c r="K82" t="str">
-        <v>795768</v>
+        <v>1245243</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>rhonin1029</v>
+        <v>岗不达</v>
       </c>
       <c r="B83" t="str">
-        <v>68667</v>
+        <v>12081</v>
       </c>
       <c r="C83" t="str">
-        <v>3848156</v>
+        <v>5375494</v>
       </c>
       <c r="D83" t="str">
-        <v>15631</v>
+        <v>27979</v>
       </c>
       <c r="E83" t="str">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="F83" t="str">
-        <v>287890</v>
+        <v>547507</v>
       </c>
       <c r="G83" t="str">
         <v>1840</v>
       </c>
       <c r="H83" t="str">
-        <v>9F2H2X3K15CQ</v>
+        <v>9D3Y7Y3SS1L1</v>
       </c>
       <c r="I83" t="str">
-        <v>44305</v>
+        <v>47510</v>
       </c>
       <c r="J83" t="str">
-        <v>1522</v>
+        <v>1915</v>
       </c>
       <c r="K83" t="str">
-        <v>806496</v>
+        <v>1354618</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>小蚊蚊V5</v>
+        <v>静寂</v>
       </c>
       <c r="B84" t="str">
-        <v>48147</v>
+        <v>18854</v>
       </c>
       <c r="C84" t="str">
-        <v>3800261</v>
+        <v>5369357</v>
       </c>
       <c r="D84" t="str">
-        <v>16195</v>
+        <v>54678</v>
       </c>
       <c r="E84" t="str">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F84" t="str">
-        <v>263815</v>
+        <v>1052040</v>
       </c>
       <c r="G84" t="str">
         <v>1840</v>
       </c>
       <c r="H84" t="str">
-        <v>9R29W25DH3T7</v>
+        <v>94JEL93AH7XM</v>
       </c>
       <c r="I84" t="str">
-        <v>43250</v>
+        <v>46310</v>
       </c>
       <c r="J84" t="str">
-        <v>1502</v>
+        <v>2026</v>
       </c>
       <c r="K84" t="str">
-        <v>775687</v>
+        <v>1099001</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>BedExplorer</v>
+        <v>龍宇</v>
       </c>
       <c r="B85" t="str">
-        <v>65097</v>
+        <v>36320</v>
       </c>
       <c r="C85" t="str">
-        <v>3777350</v>
+        <v>5159046</v>
       </c>
       <c r="D85" t="str">
-        <v>26799</v>
+        <v>23066</v>
       </c>
       <c r="E85" t="str">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="F85" t="str">
-        <v>461280</v>
+        <v>443225</v>
       </c>
       <c r="G85" t="str">
         <v>1840</v>
       </c>
       <c r="H85" t="str">
-        <v>A4J67J4PS5Q5</v>
+        <v>9NTS3L5M0C7Q</v>
       </c>
       <c r="I85" t="str">
-        <v>43715</v>
+        <v>46390</v>
       </c>
       <c r="J85" t="str">
-        <v>1480</v>
+        <v>1695</v>
       </c>
       <c r="K85" t="str">
-        <v>845084</v>
+        <v>1644009</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>大隻熊</v>
+        <v>靳睿</v>
       </c>
       <c r="B86" t="str">
-        <v>76829</v>
+        <v>12748</v>
       </c>
       <c r="C86" t="str">
-        <v>3743257</v>
+        <v>5141465</v>
       </c>
       <c r="D86" t="str">
-        <v>20665</v>
+        <v>25021</v>
       </c>
       <c r="E86" t="str">
-        <v>556</v>
+        <v>410</v>
       </c>
       <c r="F86" t="str">
-        <v>419461</v>
+        <v>486823</v>
       </c>
       <c r="G86" t="str">
         <v>1840</v>
       </c>
       <c r="H86" t="str">
-        <v>ASSF304K0PFR</v>
+        <v>9XGT3N5EC4ZS</v>
       </c>
       <c r="I86" t="str">
-        <v>43065</v>
+        <v>47170</v>
       </c>
       <c r="J86" t="str">
-        <v>1502</v>
+        <v>1817</v>
       </c>
       <c r="K86" t="str">
-        <v>693407</v>
+        <v>1358398</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>cwy0519</v>
+        <v>jeamhoy</v>
       </c>
       <c r="B87" t="str">
-        <v>65370</v>
+        <v>19658</v>
       </c>
       <c r="C87" t="str">
-        <v>3610678</v>
+        <v>5069245</v>
       </c>
       <c r="D87" t="str">
-        <v>15727</v>
+        <v>22308</v>
       </c>
       <c r="E87" t="str">
-        <v>451</v>
+        <v>621</v>
       </c>
       <c r="F87" t="str">
-        <v>239789</v>
+        <v>415438</v>
       </c>
       <c r="G87" t="str">
         <v>1840</v>
       </c>
       <c r="H87" t="str">
-        <v>9FXRP7670LRM</v>
+        <v>9WTJZN55J7HM</v>
       </c>
       <c r="I87" t="str">
-        <v>44420</v>
+        <v>47320</v>
       </c>
       <c r="J87" t="str">
-        <v>1503</v>
+        <v>1965</v>
       </c>
       <c r="K87" t="str">
-        <v>732183</v>
+        <v>1262931</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v/>
+        <v>大弯弯酱</v>
       </c>
       <c r="B88" t="str">
-        <v>76709</v>
+        <v>35397</v>
       </c>
       <c r="C88" t="str">
-        <v>3398434</v>
+        <v>5068372</v>
       </c>
       <c r="D88" t="str">
-        <v>13405</v>
+        <v>31408</v>
       </c>
       <c r="E88" t="str">
-        <v>472</v>
+        <v>1158</v>
       </c>
       <c r="F88" t="str">
-        <v>197008</v>
+        <v>610880</v>
       </c>
       <c r="G88" t="str">
         <v>1840</v>
       </c>
       <c r="H88" t="str">
-        <v>96CS2P2WL9EX</v>
+        <v>9NUSAG65HCE9</v>
       </c>
       <c r="I88" t="str">
-        <v>43875</v>
+        <v>45680</v>
       </c>
       <c r="J88" t="str">
-        <v>1500</v>
+        <v>1713</v>
       </c>
       <c r="K88" t="str">
-        <v>594983</v>
+        <v>1282384</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Yunny</v>
+        <v>super月光</v>
       </c>
       <c r="B89" t="str">
-        <v>83803</v>
+        <v>58190</v>
       </c>
       <c r="C89" t="str">
-        <v>3386021</v>
+        <v>5061208</v>
       </c>
       <c r="D89" t="str">
-        <v>16593</v>
+        <v>43920</v>
       </c>
       <c r="E89" t="str">
-        <v>568</v>
+        <v>539</v>
       </c>
       <c r="F89" t="str">
-        <v>320470</v>
+        <v>868190</v>
       </c>
       <c r="G89" t="str">
         <v>1840</v>
       </c>
       <c r="H89" t="str">
-        <v>C0EWT738H34Q</v>
+        <v>A89KKX40JCJP</v>
       </c>
       <c r="I89" t="str">
-        <v>37415</v>
+        <v>46200</v>
       </c>
       <c r="J89" t="str">
-        <v>1332</v>
+        <v>1679</v>
       </c>
       <c r="K89" t="str">
-        <v>864545</v>
+        <v>1202939</v>
       </c>
     </row>
   </sheetData>
